--- a/Refactor_Mobile/Assets/Excels/LanguageExcel.xlsx
+++ b/Refactor_Mobile/Assets/Excels/LanguageExcel.xlsx
@@ -5569,10 +5569,10 @@
     <t>RULE_MACRO</t>
   </si>
   <si>
-    <t>宏观:地图大小变为35X35</t>
-  </si>
-  <si>
-    <t>Macroscopic: Change the map size to 35 X 35.</t>
+    <t>宏观:地图大小变为27X27</t>
+  </si>
+  <si>
+    <t>Macroscopic: Change the map size to 27 X 27.</t>
   </si>
   <si>
     <t>RULE_COLD</t>
@@ -8890,8 +8890,8 @@
   <sheetPr/>
   <dimension ref="A1:E770"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A707" workbookViewId="0">
-      <selection activeCell="B713" sqref="B713"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="C624" sqref="C624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="42" customHeight="1" outlineLevelCol="4"/>

--- a/Refactor_Mobile/Assets/Excels/LanguageExcel.xlsx
+++ b/Refactor_Mobile/Assets/Excels/LanguageExcel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="2547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="2549">
   <si>
     <t>KEY</t>
   </si>
@@ -1309,31 +1309,31 @@
     <t>DRAGGUIDE</t>
   </si>
   <si>
-    <t>按住左键拖动视角</t>
-  </si>
-  <si>
-    <t>Left-click and drag to move the map</t>
+    <t>按住屏幕拖动</t>
+  </si>
+  <si>
+    <t>Hold and drag to move</t>
   </si>
   <si>
     <t>WHEELGUIDE</t>
   </si>
   <si>
-    <t>滑动滚轮缩放视角</t>
-  </si>
-  <si>
-    <t>Scroll the mouse wheel to zoom in and out</t>
+    <t>双指滑动缩放</t>
+  </si>
+  <si>
+    <t>Double fingers slide to zoom</t>
   </si>
   <si>
     <t>PLACEGUIDE</t>
   </si>
   <si>
-    <t>按住模块可拖动
-点击旋转按钮或R键可旋转
+    <t>按住模块或拖动按钮可拖动
+点击旋转按钮可旋转
 请将模块摆放到绿色光效所示位置</t>
   </si>
   <si>
-    <t>Click the module and drag 
-Rotate it by 'R' or 'rotate button'
+    <t>Click the module or move button to drag 
+Rotate it by rotate button
 Please place the module to the indicated position</t>
   </si>
   <si>
@@ -5947,7 +5947,7 @@
     <t>Guide25</t>
   </si>
   <si>
-    <t>目前游戏中共有金木水火土5种不同的元素防御塔,代号为ABCDE.</t>
+    <t>目前游戏中共有金木水火土5种不同的元素防御塔.</t>
   </si>
   <si>
     <t>There are 5 Element Turrets, named Metal, Wood, Water, Fire, Earth.</t>
@@ -5983,7 +5983,7 @@
     <t>Guide29</t>
   </si>
   <si>
-    <t>做得好,你可以在之后的战斗中继续提升系统等级.</t>
+    <t>&lt;color=#FFEA6D&gt;长按系统等级按钮，可以查看各品质的抽取概率.&lt;/color&gt;</t>
   </si>
   <si>
     <t>Well done, you can continue to upgrade the system later.</t>
@@ -6046,13 +6046,19 @@
     <t>Guide205</t>
   </si>
   <si>
-    <t>我为你提供了一笔额外的代币，现在就来尝试凑齐一个配方吧。</t>
+    <t>我为你提供了一笔额外的代币，现在就来尝试凑齐一个配方吧.</t>
   </si>
   <si>
     <t>Extra token for you! Try to build 3 modules this turn, and get a recipe!</t>
   </si>
   <si>
     <t xml:space="preserve"> number of traps the enemy passed before.</t>
+  </si>
+  <si>
+    <t>Guide2051</t>
+  </si>
+  <si>
+    <t>选择模块时，&lt;color=#FFEA6D&gt;按住将要选择的模块，可以在配方界面预览其满足的素材.&lt;/color&gt;</t>
   </si>
   <si>
     <t>Guide206</t>
@@ -8888,10 +8894,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E770"/>
+  <dimension ref="A1:E771"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A622" workbookViewId="0">
-      <selection activeCell="C624" sqref="C624"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A674" workbookViewId="0">
+      <selection activeCell="B678" sqref="B678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="42" customHeight="1" outlineLevelCol="4"/>
@@ -16357,165 +16363,165 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="677" customHeight="1" spans="1:3">
+    <row r="677" customHeight="1" spans="1:2">
       <c r="A677" s="5" t="s">
         <v>1986</v>
       </c>
       <c r="B677" s="2" t="s">
         <v>1987</v>
       </c>
-      <c r="C677" s="2" t="s">
-        <v>1988</v>
-      </c>
     </row>
     <row r="678" customHeight="1" spans="1:3">
       <c r="A678" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B678" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="B678" s="2" t="s">
+      <c r="C678" s="2" t="s">
         <v>1990</v>
-      </c>
-      <c r="C678" s="2" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="679" customHeight="1" spans="1:3">
       <c r="A679" s="5" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B679" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="B679" s="2" t="s">
+      <c r="C679" s="2" t="s">
         <v>1993</v>
-      </c>
-      <c r="C679" s="2" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="680" customHeight="1" spans="1:3">
       <c r="A680" s="5" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B680" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="B680" s="2" t="s">
+      <c r="C680" s="2" t="s">
         <v>1996</v>
-      </c>
-      <c r="C680" s="2" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="681" customHeight="1" spans="1:3">
       <c r="A681" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B681" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="B681" s="2" t="s">
+      <c r="C681" s="2" t="s">
         <v>1999</v>
-      </c>
-      <c r="C681" s="2" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="682" customHeight="1" spans="1:3">
       <c r="A682" s="5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B682" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="B682" s="2" t="s">
+      <c r="C682" s="2" t="s">
         <v>2002</v>
-      </c>
-      <c r="C682" s="2" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="683" customHeight="1" spans="1:3">
       <c r="A683" s="5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B683" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="B683" s="2" t="s">
+      <c r="C683" s="2" t="s">
         <v>2005</v>
-      </c>
-      <c r="C683" s="2" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="684" customHeight="1" spans="1:3">
       <c r="A684" s="5" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B684" s="2" t="s">
         <v>2007</v>
       </c>
-      <c r="B684" s="2" t="s">
+      <c r="C684" s="2" t="s">
         <v>2008</v>
-      </c>
-      <c r="C684" s="2" t="s">
-        <v>2009</v>
       </c>
     </row>
     <row r="685" customHeight="1" spans="1:3">
       <c r="A685" s="5" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B685" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="B685" s="2" t="s">
+      <c r="C685" s="2" t="s">
         <v>2011</v>
-      </c>
-      <c r="C685" s="2" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="686" customHeight="1" spans="1:3">
       <c r="A686" s="5" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B686" s="2" t="s">
         <v>2013</v>
       </c>
-      <c r="B686" s="2" t="s">
+      <c r="C686" s="2" t="s">
         <v>2014</v>
-      </c>
-      <c r="C686" s="2" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="687" customHeight="1" spans="1:3">
       <c r="A687" s="5" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B687" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="B687" s="2" t="s">
+      <c r="C687" s="2" t="s">
         <v>2017</v>
-      </c>
-      <c r="C687" s="2" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="688" customHeight="1" spans="1:3">
       <c r="A688" s="5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B688" s="2" t="s">
         <v>2019</v>
       </c>
-      <c r="B688" s="2" t="s">
+      <c r="C688" s="2" t="s">
         <v>2020</v>
-      </c>
-      <c r="C688" s="2" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="689" customHeight="1" spans="1:3">
       <c r="A689" s="5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B689" s="2" t="s">
         <v>2022</v>
       </c>
-      <c r="B689" s="2" t="s">
+      <c r="C689" s="2" t="s">
         <v>2023</v>
-      </c>
-      <c r="C689" s="2" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="690" customHeight="1" spans="1:3">
       <c r="A690" s="5" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B690" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="B690" s="2" t="s">
+      <c r="C690" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="C690" s="2" t="s">
+    </row>
+    <row r="691" customHeight="1" spans="1:3">
+      <c r="A691" s="5" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="691" customHeight="1" spans="1:2">
-      <c r="A691" s="5" t="s">
+      <c r="B691" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="B691" s="22" t="s">
+      <c r="C691" s="2" t="s">
         <v>2029</v>
       </c>
     </row>
@@ -16699,607 +16705,615 @@
       <c r="A714" s="5" t="s">
         <v>2074</v>
       </c>
-      <c r="B714" s="22"/>
-    </row>
-    <row r="715" customHeight="1" spans="1:3">
+      <c r="B714" s="22" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="715" customHeight="1" spans="1:2">
       <c r="A715" s="5" t="s">
-        <v>2075</v>
-      </c>
-      <c r="B715" s="2" t="s">
         <v>2076</v>
       </c>
-      <c r="C715" s="2" t="s">
-        <v>2077</v>
-      </c>
+      <c r="B715" s="22"/>
     </row>
     <row r="716" customHeight="1" spans="1:3">
       <c r="A716" s="5" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B716" s="2" t="s">
         <v>2078</v>
       </c>
-      <c r="B716" s="2" t="s">
+      <c r="C716" s="2" t="s">
         <v>2079</v>
-      </c>
-      <c r="C716" s="2" t="s">
-        <v>2080</v>
       </c>
     </row>
     <row r="717" customHeight="1" spans="1:3">
       <c r="A717" s="5" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B717" s="2" t="s">
         <v>2081</v>
       </c>
-      <c r="B717" s="2" t="s">
+      <c r="C717" s="2" t="s">
         <v>2082</v>
-      </c>
-      <c r="C717" s="2" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="718" customHeight="1" spans="1:3">
       <c r="A718" s="5" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B718" s="2" t="s">
         <v>2084</v>
       </c>
-      <c r="B718" s="2" t="s">
+      <c r="C718" s="2" t="s">
         <v>2085</v>
-      </c>
-      <c r="C718" s="2" t="s">
-        <v>2086</v>
       </c>
     </row>
     <row r="719" customHeight="1" spans="1:3">
       <c r="A719" s="5" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B719" s="2" t="s">
         <v>2087</v>
       </c>
-      <c r="B719" s="2" t="s">
+      <c r="C719" s="2" t="s">
         <v>2088</v>
-      </c>
-      <c r="C719" s="2" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="720" customHeight="1" spans="1:3">
       <c r="A720" s="5" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B720" s="2" t="s">
         <v>2090</v>
       </c>
-      <c r="B720" s="2" t="s">
+      <c r="C720" s="2" t="s">
         <v>2091</v>
-      </c>
-      <c r="C720" s="2" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="721" customHeight="1" spans="1:3">
       <c r="A721" s="5" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B721" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="B721" s="2" t="s">
+      <c r="C721" s="2" t="s">
         <v>2094</v>
       </c>
-      <c r="C721" s="2" t="s">
+    </row>
+    <row r="722" customHeight="1" spans="1:3">
+      <c r="A722" s="5" t="s">
         <v>2095</v>
       </c>
-    </row>
-    <row r="722" customHeight="1" spans="1:1">
-      <c r="A722" s="5" t="s">
+      <c r="B722" s="2" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="723" customHeight="1" spans="1:3">
+      <c r="C722" s="2" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="723" customHeight="1" spans="1:1">
       <c r="A723" s="5" t="s">
-        <v>2097</v>
-      </c>
-      <c r="B723" s="2" t="s">
         <v>2098</v>
-      </c>
-      <c r="C723" s="2" t="s">
-        <v>2099</v>
       </c>
     </row>
     <row r="724" customHeight="1" spans="1:3">
       <c r="A724" s="5" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B724" s="2" t="s">
         <v>2100</v>
       </c>
-      <c r="B724" s="2" t="s">
+      <c r="C724" s="2" t="s">
         <v>2101</v>
-      </c>
-      <c r="C724" s="2" t="s">
-        <v>2102</v>
       </c>
     </row>
     <row r="725" customHeight="1" spans="1:3">
       <c r="A725" s="5" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B725" s="2" t="s">
         <v>2103</v>
       </c>
-      <c r="B725" s="2" t="s">
+      <c r="C725" s="2" t="s">
         <v>2104</v>
-      </c>
-      <c r="C725" s="2" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="726" customHeight="1" spans="1:3">
       <c r="A726" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B726" s="2" t="s">
         <v>2106</v>
       </c>
-      <c r="B726" s="2" t="s">
+      <c r="C726" s="2" t="s">
         <v>2107</v>
-      </c>
-      <c r="C726" s="2" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="727" customHeight="1" spans="1:3">
       <c r="A727" s="5" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B727" s="2" t="s">
         <v>2109</v>
       </c>
-      <c r="B727" s="2" t="s">
+      <c r="C727" s="2" t="s">
         <v>2110</v>
-      </c>
-      <c r="C727" s="2" t="s">
-        <v>2111</v>
       </c>
     </row>
     <row r="728" customHeight="1" spans="1:3">
       <c r="A728" s="5" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B728" s="2" t="s">
         <v>2112</v>
       </c>
-      <c r="B728" s="2" t="s">
+      <c r="C728" s="2" t="s">
         <v>2113</v>
-      </c>
-      <c r="C728" s="2" t="s">
-        <v>2114</v>
       </c>
     </row>
     <row r="729" customHeight="1" spans="1:3">
       <c r="A729" s="5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B729" s="2" t="s">
         <v>2115</v>
       </c>
-      <c r="B729" s="2" t="s">
+      <c r="C729" s="2" t="s">
         <v>2116</v>
-      </c>
-      <c r="C729" s="2" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="730" customHeight="1" spans="1:3">
       <c r="A730" s="5" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B730" s="2" t="s">
         <v>2118</v>
       </c>
-      <c r="B730" s="2" t="s">
+      <c r="C730" s="2" t="s">
         <v>2119</v>
-      </c>
-      <c r="C730" s="2" t="s">
-        <v>2120</v>
       </c>
     </row>
     <row r="731" customHeight="1" spans="1:3">
       <c r="A731" s="5" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B731" s="2" t="s">
         <v>2121</v>
       </c>
-      <c r="B731" s="2" t="s">
+      <c r="C731" s="2" t="s">
         <v>2122</v>
-      </c>
-      <c r="C731" s="2" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="732" customHeight="1" spans="1:3">
       <c r="A732" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B732" s="2" t="s">
         <v>2124</v>
       </c>
-      <c r="B732" s="2" t="s">
+      <c r="C732" s="2" t="s">
         <v>2125</v>
-      </c>
-      <c r="C732" s="2" t="s">
-        <v>2126</v>
       </c>
     </row>
     <row r="733" customHeight="1" spans="1:3">
       <c r="A733" s="5" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B733" s="2" t="s">
         <v>2127</v>
       </c>
-      <c r="B733" s="2" t="s">
+      <c r="C733" s="2" t="s">
         <v>2128</v>
-      </c>
-      <c r="C733" s="2" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="734" customHeight="1" spans="1:3">
       <c r="A734" s="5" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B734" s="2" t="s">
         <v>2130</v>
       </c>
-      <c r="B734" s="2" t="s">
+      <c r="C734" s="2" t="s">
         <v>2131</v>
-      </c>
-      <c r="C734" s="2" t="s">
-        <v>2132</v>
       </c>
     </row>
     <row r="735" customHeight="1" spans="1:3">
       <c r="A735" s="5" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B735" s="2" t="s">
         <v>2133</v>
       </c>
-      <c r="B735" s="2" t="s">
+      <c r="C735" s="2" t="s">
         <v>2134</v>
-      </c>
-      <c r="C735" s="2" t="s">
-        <v>2135</v>
       </c>
     </row>
     <row r="736" customHeight="1" spans="1:3">
       <c r="A736" s="5" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B736" s="2" t="s">
         <v>2136</v>
       </c>
-      <c r="B736" s="2" t="s">
+      <c r="C736" s="2" t="s">
         <v>2137</v>
-      </c>
-      <c r="C736" s="2" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="737" customHeight="1" spans="1:3">
       <c r="A737" s="5" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B737" s="2" t="s">
         <v>2139</v>
       </c>
-      <c r="B737" s="2" t="s">
+      <c r="C737" s="2" t="s">
         <v>2140</v>
-      </c>
-      <c r="C737" s="2" t="s">
-        <v>2141</v>
       </c>
     </row>
     <row r="738" customHeight="1" spans="1:3">
       <c r="A738" s="5" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B738" s="2" t="s">
         <v>2142</v>
       </c>
-      <c r="B738" s="2" t="s">
+      <c r="C738" s="2" t="s">
         <v>2143</v>
-      </c>
-      <c r="C738" s="2" t="s">
-        <v>2144</v>
       </c>
     </row>
     <row r="739" customHeight="1" spans="1:3">
       <c r="A739" s="5" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B739" s="2" t="s">
         <v>2145</v>
       </c>
-      <c r="B739" s="2" t="s">
+      <c r="C739" s="2" t="s">
         <v>2146</v>
-      </c>
-      <c r="C739" s="2" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="740" customHeight="1" spans="1:3">
       <c r="A740" s="5" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B740" s="2" t="s">
         <v>2148</v>
       </c>
-      <c r="B740" s="2" t="s">
+      <c r="C740" s="2" t="s">
         <v>2149</v>
       </c>
-      <c r="C740" s="2" t="s">
+    </row>
+    <row r="741" customHeight="1" spans="1:3">
+      <c r="A741" s="5" t="s">
         <v>2150</v>
       </c>
-    </row>
-    <row r="741" customHeight="1" spans="1:1">
-      <c r="A741" s="5" t="s">
+      <c r="B741" s="2" t="s">
         <v>2151</v>
       </c>
-    </row>
-    <row r="742" customHeight="1" spans="1:3">
+      <c r="C741" s="2" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="742" customHeight="1" spans="1:1">
       <c r="A742" s="5" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B742" s="2" t="s">
         <v>2153</v>
-      </c>
-      <c r="C742" s="2" t="s">
-        <v>2154</v>
       </c>
     </row>
     <row r="743" customHeight="1" spans="1:3">
       <c r="A743" s="5" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B743" s="2" t="s">
         <v>2155</v>
       </c>
-      <c r="B743" s="2" t="s">
+      <c r="C743" s="2" t="s">
         <v>2156</v>
       </c>
-      <c r="C743" s="2" t="s">
+    </row>
+    <row r="744" customHeight="1" spans="1:3">
+      <c r="A744" s="5" t="s">
         <v>2157</v>
       </c>
-    </row>
-    <row r="744" customHeight="1" spans="1:1">
-      <c r="A744" s="23" t="s">
+      <c r="B744" s="2" t="s">
         <v>2158</v>
       </c>
-    </row>
-    <row r="745" customHeight="1" spans="1:3">
+      <c r="C744" s="2" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="745" customHeight="1" spans="1:1">
       <c r="A745" s="23" t="s">
-        <v>2159</v>
-      </c>
-      <c r="B745" s="2" t="s">
         <v>2160</v>
       </c>
-      <c r="C745" s="2" t="s">
+    </row>
+    <row r="746" customHeight="1" spans="1:3">
+      <c r="A746" s="23" t="s">
         <v>2161</v>
       </c>
-    </row>
-    <row r="746" customHeight="1" spans="1:4">
-      <c r="A746" s="23" t="s">
+      <c r="B746" s="2" t="s">
         <v>2162</v>
       </c>
-      <c r="B746" s="2" t="s">
+      <c r="C746" s="2" t="s">
         <v>2163</v>
       </c>
-      <c r="C746" s="2" t="s">
+    </row>
+    <row r="747" customHeight="1" spans="1:4">
+      <c r="A747" s="23" t="s">
         <v>2164</v>
       </c>
-      <c r="D746" s="2" t="s">
+      <c r="B747" s="2" t="s">
         <v>2165</v>
       </c>
-    </row>
-    <row r="747" customHeight="1" spans="1:3">
-      <c r="A747" s="23" t="s">
+      <c r="C747" s="2" t="s">
         <v>2166</v>
       </c>
-      <c r="B747" s="2" t="s">
+      <c r="D747" s="2" t="s">
         <v>2167</v>
-      </c>
-      <c r="C747" s="2" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="748" customHeight="1" spans="1:3">
       <c r="A748" s="23" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B748" s="2" t="s">
         <v>2169</v>
       </c>
-      <c r="B748" s="2" t="s">
+      <c r="C748" s="2" t="s">
         <v>2170</v>
-      </c>
-      <c r="C748" s="2" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="749" customHeight="1" spans="1:3">
       <c r="A749" s="23" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B749" s="2" t="s">
         <v>2172</v>
       </c>
-      <c r="B749" s="2" t="s">
+      <c r="C749" s="2" t="s">
         <v>2173</v>
-      </c>
-      <c r="C749" s="2" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="750" customHeight="1" spans="1:3">
       <c r="A750" s="23" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B750" s="2" t="s">
         <v>2175</v>
       </c>
-      <c r="B750" s="2" t="s">
+      <c r="C750" s="2" t="s">
         <v>2176</v>
-      </c>
-      <c r="C750" s="2" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="751" customHeight="1" spans="1:3">
       <c r="A751" s="23" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B751" s="2" t="s">
         <v>2178</v>
       </c>
-      <c r="B751" s="2" t="s">
+      <c r="C751" s="2" t="s">
         <v>2179</v>
       </c>
-      <c r="C751" s="2" t="s">
+    </row>
+    <row r="752" customHeight="1" spans="1:3">
+      <c r="A752" s="23" t="s">
         <v>2180</v>
       </c>
-    </row>
-    <row r="752" customHeight="1" spans="1:4">
-      <c r="A752" s="23" t="s">
+      <c r="B752" s="2" t="s">
         <v>2181</v>
       </c>
-      <c r="B752" s="2" t="s">
+      <c r="C752" s="2" t="s">
         <v>2182</v>
-      </c>
-      <c r="C752" s="2" t="s">
-        <v>2183</v>
-      </c>
-      <c r="D752" s="2" t="s">
-        <v>2184</v>
       </c>
     </row>
     <row r="753" customHeight="1" spans="1:4">
       <c r="A753" s="23" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C753" s="2" t="s">
         <v>2185</v>
       </c>
       <c r="D753" s="2" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="754" customHeight="1" spans="1:3">
+    <row r="754" customHeight="1" spans="1:4">
       <c r="A754" s="23" t="s">
         <v>2187</v>
       </c>
-      <c r="B754" s="2" t="s">
+      <c r="D754" s="2" t="s">
         <v>2188</v>
-      </c>
-      <c r="C754" s="2" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="755" customHeight="1" spans="1:3">
       <c r="A755" s="23" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B755" s="2" t="s">
         <v>2190</v>
       </c>
-      <c r="B755" s="2" t="s">
+      <c r="C755" s="2" t="s">
         <v>2191</v>
-      </c>
-      <c r="C755" s="2" t="s">
-        <v>2192</v>
       </c>
     </row>
     <row r="756" customHeight="1" spans="1:3">
       <c r="A756" s="23" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B756" s="2" t="s">
         <v>2193</v>
       </c>
-      <c r="B756" s="2" t="s">
+      <c r="C756" s="2" t="s">
         <v>2194</v>
-      </c>
-      <c r="C756" s="2" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="757" customHeight="1" spans="1:3">
       <c r="A757" s="23" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B757" s="2" t="s">
         <v>2196</v>
       </c>
-      <c r="B757" s="2" t="s">
+      <c r="C757" s="2" t="s">
         <v>2197</v>
-      </c>
-      <c r="C757" s="2" t="s">
-        <v>2198</v>
       </c>
     </row>
     <row r="758" customHeight="1" spans="1:3">
       <c r="A758" s="23" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B758" s="2" t="s">
         <v>2199</v>
       </c>
-      <c r="B758" s="2" t="s">
+      <c r="C758" s="2" t="s">
         <v>2200</v>
-      </c>
-      <c r="C758" s="2" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="759" customHeight="1" spans="1:3">
       <c r="A759" s="23" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B759" s="2" t="s">
         <v>2202</v>
       </c>
-      <c r="B759" s="2" t="s">
+      <c r="C759" s="2" t="s">
         <v>2203</v>
-      </c>
-      <c r="C759" s="2" t="s">
-        <v>2204</v>
       </c>
     </row>
     <row r="760" customHeight="1" spans="1:3">
       <c r="A760" s="23" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B760" s="2" t="s">
         <v>2205</v>
       </c>
-      <c r="B760" s="2" t="s">
+      <c r="C760" s="2" t="s">
         <v>2206</v>
-      </c>
-      <c r="C760" s="2" t="s">
-        <v>2207</v>
       </c>
     </row>
     <row r="761" customHeight="1" spans="1:3">
       <c r="A761" s="23" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B761" s="2" t="s">
         <v>2208</v>
       </c>
-      <c r="B761" s="2" t="s">
+      <c r="C761" s="2" t="s">
         <v>2209</v>
-      </c>
-      <c r="C761" s="2" t="s">
-        <v>2210</v>
       </c>
     </row>
     <row r="762" customHeight="1" spans="1:3">
       <c r="A762" s="23" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B762" s="2" t="s">
         <v>2211</v>
       </c>
-      <c r="B762" s="2" t="s">
+      <c r="C762" s="2" t="s">
         <v>2212</v>
-      </c>
-      <c r="C762" s="2" t="s">
-        <v>2213</v>
       </c>
     </row>
     <row r="763" customHeight="1" spans="1:3">
       <c r="A763" s="23" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B763" s="2" t="s">
         <v>2214</v>
       </c>
-      <c r="B763" s="2" t="s">
+      <c r="C763" s="2" t="s">
         <v>2215</v>
-      </c>
-      <c r="C763" s="2" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="764" customHeight="1" spans="1:3">
       <c r="A764" s="23" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B764" s="2" t="s">
         <v>2217</v>
       </c>
-      <c r="B764" s="2" t="s">
+      <c r="C764" s="2" t="s">
         <v>2218</v>
-      </c>
-      <c r="C764" s="2" t="s">
-        <v>2219</v>
       </c>
     </row>
     <row r="765" customHeight="1" spans="1:3">
       <c r="A765" s="23" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B765" s="2" t="s">
         <v>2220</v>
       </c>
-      <c r="B765" s="2" t="s">
+      <c r="C765" s="2" t="s">
         <v>2221</v>
-      </c>
-      <c r="C765" s="2" t="s">
-        <v>2222</v>
       </c>
     </row>
     <row r="766" customHeight="1" spans="1:3">
       <c r="A766" s="23" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B766" s="2" t="s">
         <v>2223</v>
       </c>
-      <c r="B766" s="2" t="s">
+      <c r="C766" s="2" t="s">
         <v>2224</v>
-      </c>
-      <c r="C766" s="2" t="s">
-        <v>2225</v>
       </c>
     </row>
     <row r="767" customHeight="1" spans="1:3">
       <c r="A767" s="23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B767" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="B767" s="2" t="s">
+      <c r="C767" s="2" t="s">
         <v>2227</v>
-      </c>
-      <c r="C767" s="2" t="s">
-        <v>2228</v>
       </c>
     </row>
     <row r="768" customHeight="1" spans="1:3">
       <c r="A768" s="23" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B768" s="2" t="s">
         <v>2229</v>
       </c>
-      <c r="B768" s="2" t="s">
+      <c r="C768" s="2" t="s">
         <v>2230</v>
-      </c>
-      <c r="C768" s="2" t="s">
-        <v>2231</v>
       </c>
     </row>
     <row r="769" customHeight="1" spans="1:3">
       <c r="A769" s="23" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B769" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="B769" s="2" t="s">
+      <c r="C769" s="2" t="s">
         <v>2233</v>
-      </c>
-      <c r="C769" s="2" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="770" customHeight="1" spans="1:3">
       <c r="A770" s="23" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B770" s="2" t="s">
         <v>2235</v>
       </c>
-      <c r="B770" s="2" t="s">
+      <c r="C770" s="2" t="s">
         <v>2236</v>
       </c>
-      <c r="C770" s="2" t="s">
+    </row>
+    <row r="771" customHeight="1" spans="1:3">
+      <c r="A771" s="23" t="s">
         <v>2237</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>2239</v>
       </c>
     </row>
   </sheetData>
@@ -17330,10 +17344,10 @@
         <v>964</v>
       </c>
       <c r="B1" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="C1" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:3">
@@ -17341,10 +17355,10 @@
         <v>967</v>
       </c>
       <c r="B2" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="C2" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:3">
@@ -17352,10 +17366,10 @@
         <v>970</v>
       </c>
       <c r="B3" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="C3" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:3">
@@ -17363,10 +17377,10 @@
         <v>973</v>
       </c>
       <c r="B4" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="C4" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:3">
@@ -17374,10 +17388,10 @@
         <v>976</v>
       </c>
       <c r="B5" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="C5" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:3">
@@ -17385,10 +17399,10 @@
         <v>979</v>
       </c>
       <c r="B6" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="C6" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:3">
@@ -17396,10 +17410,10 @@
         <v>982</v>
       </c>
       <c r="B7" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="C7" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:3">
@@ -17407,10 +17421,10 @@
         <v>985</v>
       </c>
       <c r="B8" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="C8" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:3">
@@ -17418,10 +17432,10 @@
         <v>988</v>
       </c>
       <c r="B9" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="C9" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:3">
@@ -17429,10 +17443,10 @@
         <v>991</v>
       </c>
       <c r="B10" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="C10" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:3">
@@ -17440,10 +17454,10 @@
         <v>994</v>
       </c>
       <c r="B11" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="C11" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:3">
@@ -17451,10 +17465,10 @@
         <v>997</v>
       </c>
       <c r="B12" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="C12" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:3">
@@ -17462,10 +17476,10 @@
         <v>1000</v>
       </c>
       <c r="B13" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="C13" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:3">
@@ -17473,10 +17487,10 @@
         <v>1003</v>
       </c>
       <c r="B14" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="C14" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:3">
@@ -17484,10 +17498,10 @@
         <v>1006</v>
       </c>
       <c r="B15" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="C15" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:3">
@@ -17495,10 +17509,10 @@
         <v>1009</v>
       </c>
       <c r="B16" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="C16" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:3">
@@ -17506,10 +17520,10 @@
         <v>1012</v>
       </c>
       <c r="B17" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="C17" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="18" ht="15.15" spans="1:3">
@@ -17517,10 +17531,10 @@
         <v>1015</v>
       </c>
       <c r="B18" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="C18" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="19" ht="15.15" spans="1:3">
@@ -17528,10 +17542,10 @@
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="C19" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:3">
@@ -17539,10 +17553,10 @@
         <v>1021</v>
       </c>
       <c r="B20" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="C20" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="21" ht="15.15" spans="1:3">
@@ -17550,10 +17564,10 @@
         <v>1024</v>
       </c>
       <c r="B21" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="C21" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="22" ht="15.15" spans="1:3">
@@ -17561,10 +17575,10 @@
         <v>1027</v>
       </c>
       <c r="B22" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="C22" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="23" ht="15.15" spans="1:3">
@@ -17572,10 +17586,10 @@
         <v>1030</v>
       </c>
       <c r="B23" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="C23" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="24" ht="15.15" spans="1:3">
@@ -17583,10 +17597,10 @@
         <v>1033</v>
       </c>
       <c r="B24" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="C24" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="25" ht="15.15" spans="1:3">
@@ -17594,10 +17608,10 @@
         <v>1036</v>
       </c>
       <c r="B25" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="C25" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="26" ht="15.15" spans="1:3">
@@ -17605,10 +17619,10 @@
         <v>1039</v>
       </c>
       <c r="B26" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="C26" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="27" ht="15.15" spans="1:3">
@@ -17616,10 +17630,10 @@
         <v>1042</v>
       </c>
       <c r="B27" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="C27" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="28" ht="15.15" spans="1:3">
@@ -17627,10 +17641,10 @@
         <v>1045</v>
       </c>
       <c r="B28" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="C28" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="29" ht="15.15" spans="1:3">
@@ -17638,10 +17652,10 @@
         <v>1048</v>
       </c>
       <c r="B29" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="C29" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="30" ht="15.15" spans="1:3">
@@ -17649,10 +17663,10 @@
         <v>1049</v>
       </c>
       <c r="B30" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="C30" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="31" ht="15.15" spans="1:3">
@@ -17660,10 +17674,10 @@
         <v>1052</v>
       </c>
       <c r="B31" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="C31" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="32" ht="15.15" spans="1:3">
@@ -17671,10 +17685,10 @@
         <v>1055</v>
       </c>
       <c r="B32" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="C32" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="33" ht="15.15" spans="1:3">
@@ -17682,10 +17696,10 @@
         <v>1058</v>
       </c>
       <c r="B33" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="C33" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="34" ht="15.15" spans="1:3">
@@ -17693,10 +17707,10 @@
         <v>1061</v>
       </c>
       <c r="B34" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="C34" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="35" ht="15.15" spans="1:3">
@@ -17704,10 +17718,10 @@
         <v>1064</v>
       </c>
       <c r="B35" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="C35" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="36" ht="15.15" spans="1:3">
@@ -17715,10 +17729,10 @@
         <v>1067</v>
       </c>
       <c r="B36" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="C36" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="37" ht="15.15" spans="1:3">
@@ -17726,10 +17740,10 @@
         <v>1070</v>
       </c>
       <c r="B37" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="C37" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="38" ht="15.15" spans="1:3">
@@ -17737,10 +17751,10 @@
         <v>1073</v>
       </c>
       <c r="B38" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="C38" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="39" ht="15.15" spans="1:3">
@@ -17748,10 +17762,10 @@
         <v>1076</v>
       </c>
       <c r="B39" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="C39" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="40" ht="15.15" spans="1:3">
@@ -17759,10 +17773,10 @@
         <v>1079</v>
       </c>
       <c r="B40" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="C40" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="41" ht="15.15" spans="1:3">
@@ -17770,10 +17784,10 @@
         <v>1082</v>
       </c>
       <c r="B41" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="C41" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="42" ht="15.15" spans="1:3">
@@ -17781,10 +17795,10 @@
         <v>1085</v>
       </c>
       <c r="B42" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="C42" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="43" ht="15.15" spans="1:3">
@@ -17792,10 +17806,10 @@
         <v>1088</v>
       </c>
       <c r="B43" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="C43" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="44" ht="15.15" spans="1:3">
@@ -17803,10 +17817,10 @@
         <v>1091</v>
       </c>
       <c r="B44" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="C44" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="45" ht="15.15" spans="1:3">
@@ -17814,10 +17828,10 @@
         <v>1093</v>
       </c>
       <c r="B45" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="C45" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="46" ht="15.15" spans="1:3">
@@ -17825,10 +17839,10 @@
         <v>1096</v>
       </c>
       <c r="B46" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="C46" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="47" ht="15.15" spans="1:3">
@@ -17836,10 +17850,10 @@
         <v>1099</v>
       </c>
       <c r="B47" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="C47" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="48" ht="15.15" spans="1:3">
@@ -17847,90 +17861,90 @@
         <v>1102</v>
       </c>
       <c r="B48" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="C48" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="B50" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="B51" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="C54" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="C55" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="C56" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="C57" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="C58" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="C59" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="C60" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="C61" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="65" ht="15.15" spans="2:4">
@@ -17949,10 +17963,10 @@
         <v>961</v>
       </c>
       <c r="C66" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="D66" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="67" ht="15.15" spans="2:4">
@@ -17960,10 +17974,10 @@
         <v>964</v>
       </c>
       <c r="C67" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="D67" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="68" ht="15.15" spans="2:4">
@@ -17971,10 +17985,10 @@
         <v>967</v>
       </c>
       <c r="C68" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="D68" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="69" ht="15.15" spans="2:4">
@@ -17982,10 +17996,10 @@
         <v>970</v>
       </c>
       <c r="C69" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="D69" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="70" ht="15.15" spans="2:4">
@@ -17993,10 +18007,10 @@
         <v>973</v>
       </c>
       <c r="C70" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="D70" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="71" ht="15.15" spans="2:4">
@@ -18004,10 +18018,10 @@
         <v>976</v>
       </c>
       <c r="C71" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="D71" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="72" ht="15.15" spans="2:4">
@@ -18015,10 +18029,10 @@
         <v>979</v>
       </c>
       <c r="C72" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="D72" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="73" ht="15.15" spans="2:4">
@@ -18026,10 +18040,10 @@
         <v>982</v>
       </c>
       <c r="C73" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="D73" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="74" ht="15.15" spans="2:4">
@@ -18037,10 +18051,10 @@
         <v>985</v>
       </c>
       <c r="C74" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="D74" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="75" ht="15.15" spans="2:4">
@@ -18048,10 +18062,10 @@
         <v>988</v>
       </c>
       <c r="C75" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="D75" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="76" ht="15.15" spans="2:4">
@@ -18059,10 +18073,10 @@
         <v>991</v>
       </c>
       <c r="C76" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="D76" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="77" ht="15.15" spans="2:4">
@@ -18070,10 +18084,10 @@
         <v>994</v>
       </c>
       <c r="C77" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="D77" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="78" ht="15.15" spans="2:4">
@@ -18081,10 +18095,10 @@
         <v>997</v>
       </c>
       <c r="C78" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="D78" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="79" ht="15.15" spans="2:4">
@@ -18092,10 +18106,10 @@
         <v>1000</v>
       </c>
       <c r="C79" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="D79" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="80" ht="15.15" spans="2:4">
@@ -18103,10 +18117,10 @@
         <v>1003</v>
       </c>
       <c r="C80" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="D80" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="81" ht="15.15" spans="2:4">
@@ -18114,10 +18128,10 @@
         <v>1006</v>
       </c>
       <c r="C81" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="D81" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="82" ht="15.15" spans="2:4">
@@ -18125,10 +18139,10 @@
         <v>1009</v>
       </c>
       <c r="C82" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="D82" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="83" ht="15.15" spans="2:4">
@@ -18136,10 +18150,10 @@
         <v>1012</v>
       </c>
       <c r="C83" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="D83" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="84" ht="15.15" spans="2:4">
@@ -18147,10 +18161,10 @@
         <v>1015</v>
       </c>
       <c r="C84" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="D84" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="85" ht="15.15" spans="2:4">
@@ -18158,10 +18172,10 @@
         <v>1018</v>
       </c>
       <c r="C85" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="D85" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="86" ht="15.15" spans="2:4">
@@ -18169,10 +18183,10 @@
         <v>1021</v>
       </c>
       <c r="C86" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="D86" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="87" ht="15.15" spans="2:4">
@@ -18180,10 +18194,10 @@
         <v>1024</v>
       </c>
       <c r="C87" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="D87" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="88" ht="15.15" spans="2:4">
@@ -18191,10 +18205,10 @@
         <v>1027</v>
       </c>
       <c r="C88" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="D88" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="89" ht="15.15" spans="2:4">
@@ -18202,10 +18216,10 @@
         <v>1030</v>
       </c>
       <c r="C89" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="D89" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="90" ht="15.15" spans="2:4">
@@ -18213,10 +18227,10 @@
         <v>1033</v>
       </c>
       <c r="C90" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="D90" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="91" ht="15.15" spans="2:4">
@@ -18224,10 +18238,10 @@
         <v>1036</v>
       </c>
       <c r="C91" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="D91" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="92" ht="15.15" spans="2:4">
@@ -18235,10 +18249,10 @@
         <v>1039</v>
       </c>
       <c r="C92" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="D92" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="93" ht="15.15" spans="2:4">
@@ -18246,10 +18260,10 @@
         <v>1042</v>
       </c>
       <c r="C93" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="D93" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="94" ht="15.15" spans="2:4">
@@ -18257,10 +18271,10 @@
         <v>1045</v>
       </c>
       <c r="C94" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="D94" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="95" ht="15.15" spans="2:4">
@@ -18268,10 +18282,10 @@
         <v>1048</v>
       </c>
       <c r="C95" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="D95" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="96" ht="15.15" spans="2:4">
@@ -18279,10 +18293,10 @@
         <v>1049</v>
       </c>
       <c r="C96" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="D96" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="97" ht="15.15" spans="2:4">
@@ -18290,10 +18304,10 @@
         <v>1052</v>
       </c>
       <c r="C97" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="D97" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="98" ht="15.15" spans="2:4">
@@ -18301,10 +18315,10 @@
         <v>1055</v>
       </c>
       <c r="C98" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="D98" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="99" ht="15.15" spans="2:4">
@@ -18312,10 +18326,10 @@
         <v>1058</v>
       </c>
       <c r="C99" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="D99" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="100" ht="15.15" spans="2:4">
@@ -18323,10 +18337,10 @@
         <v>1061</v>
       </c>
       <c r="C100" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="D100" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="101" ht="15.15" spans="2:4">
@@ -18334,10 +18348,10 @@
         <v>1064</v>
       </c>
       <c r="C101" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="D101" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="102" ht="15.15" spans="2:4">
@@ -18345,10 +18359,10 @@
         <v>1067</v>
       </c>
       <c r="C102" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="D102" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="103" ht="15.15" spans="2:4">
@@ -18356,10 +18370,10 @@
         <v>1070</v>
       </c>
       <c r="C103" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="D103" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="104" ht="15.15" spans="2:4">
@@ -18367,10 +18381,10 @@
         <v>1073</v>
       </c>
       <c r="C104" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="D104" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="105" ht="15.15" spans="2:4">
@@ -18381,7 +18395,7 @@
         <v>989</v>
       </c>
       <c r="D105" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="106" ht="15.15" spans="2:4">
@@ -18389,10 +18403,10 @@
         <v>1079</v>
       </c>
       <c r="C106" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="D106" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="107" ht="15.15" spans="2:4">
@@ -18400,10 +18414,10 @@
         <v>1082</v>
       </c>
       <c r="C107" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="D107" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="108" ht="15.15" spans="2:4">
@@ -18411,10 +18425,10 @@
         <v>1085</v>
       </c>
       <c r="C108" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="D108" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="109" ht="15.15" spans="2:4">
@@ -18422,10 +18436,10 @@
         <v>1088</v>
       </c>
       <c r="C109" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="D109" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="110" ht="15.15" spans="2:4">
@@ -18433,10 +18447,10 @@
         <v>1091</v>
       </c>
       <c r="C110" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="D110" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="111" ht="15.15" spans="2:4">
@@ -18444,10 +18458,10 @@
         <v>1093</v>
       </c>
       <c r="C111" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="D111" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="112" ht="15.15" spans="2:4">
@@ -18455,10 +18469,10 @@
         <v>1096</v>
       </c>
       <c r="C112" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="D112" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="113" ht="15.15" spans="2:4">
@@ -18466,10 +18480,10 @@
         <v>1099</v>
       </c>
       <c r="C113" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="D113" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="114" ht="15.15" spans="2:4">
@@ -18477,74 +18491,74 @@
         <v>1102</v>
       </c>
       <c r="C114" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="D114" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="117" spans="3:4">
       <c r="C117" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="D117" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="118" spans="3:4">
       <c r="C118" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="D118" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="119" spans="3:4">
       <c r="C119" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="D119" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="120" spans="3:4">
       <c r="C120" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="D120" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="121" spans="3:4">
       <c r="C121" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="D121" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="122" spans="3:4">
       <c r="C122" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="D122" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="123" spans="3:4">
       <c r="C123" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="D123" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="124" spans="3:4">
       <c r="C124" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="D124" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="126" spans="3:4">
@@ -18552,31 +18566,31 @@
         <v>989</v>
       </c>
       <c r="D126" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="127" spans="3:4">
       <c r="C127" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="D127" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="136" spans="3:4">
       <c r="C136" s="2" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="137" spans="3:4">
       <c r="C137" s="2" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="139" ht="15.15" spans="3:5">
@@ -18595,10 +18609,10 @@
         <v>1107</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="141" ht="15.15" spans="3:5">
@@ -18606,10 +18620,10 @@
         <v>1110</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="142" ht="15.15" spans="3:5">
@@ -18617,10 +18631,10 @@
         <v>1113</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="143" ht="15.15" spans="3:5">
@@ -18628,10 +18642,10 @@
         <v>1116</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="144" ht="15.15" spans="3:5">
@@ -18639,10 +18653,10 @@
         <v>1119</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="145" spans="2:5">
@@ -18653,24 +18667,24 @@
         <v>1054</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="146" spans="2:5">
       <c r="B146" s="2" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="D146" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="147" spans="2:5">
@@ -18681,24 +18695,24 @@
         <v>1060</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="2" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="D148" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="149" spans="2:5">
@@ -18709,52 +18723,52 @@
         <v>1066</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="150" spans="2:5">
       <c r="B150" s="2" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="151" spans="2:5">
       <c r="B151" s="2" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="2" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="D152" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="153" ht="15.15" spans="3:5">
@@ -18762,10 +18776,10 @@
         <v>1146</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="154" ht="15.15" spans="2:5">
@@ -18776,24 +18790,24 @@
         <v>1149</v>
       </c>
       <c r="D154" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="155" ht="15.15" spans="2:5">
       <c r="B155" s="2" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="156" ht="15.15" spans="2:5">
@@ -18804,15 +18818,15 @@
         <v>1155</v>
       </c>
       <c r="D156" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="157" ht="15.15" spans="2:5">
       <c r="B157" s="2" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>1158</v>
@@ -18832,15 +18846,15 @@
         <v>1161</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="2" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="160" spans="2:2">
@@ -18850,21 +18864,21 @@
     </row>
     <row r="161" spans="2:4">
       <c r="B161" s="2" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="162" spans="3:4">
       <c r="C162" s="2" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="164" spans="2:3">
@@ -18877,10 +18891,10 @@
     </row>
     <row r="165" spans="3:4">
       <c r="C165" s="2" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="167" spans="2:3">
@@ -18893,18 +18907,18 @@
     </row>
     <row r="168" spans="2:3">
       <c r="B168" s="2" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" s="2" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="172" spans="2:3">
@@ -18936,10 +18950,10 @@
         <v>1176</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="180" ht="15.15" spans="2:4">
@@ -18947,10 +18961,10 @@
         <v>1179</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="185" ht="15.15" spans="2:4">
@@ -18969,10 +18983,10 @@
         <v>1456</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="187" ht="15.15" spans="2:4">
@@ -18980,7 +18994,7 @@
         <v>1459</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>1461</v>
@@ -18991,7 +19005,7 @@
         <v>1462</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>1464</v>
@@ -19013,10 +19027,10 @@
         <v>1468</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="191" ht="15.15" spans="2:4">
@@ -19035,7 +19049,7 @@
         <v>1474</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>1476</v>
@@ -19101,10 +19115,10 @@
         <v>1492</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="199" ht="15.15" spans="2:4">
@@ -19112,10 +19126,10 @@
         <v>1495</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="200" ht="15.15" spans="2:4">
@@ -19123,10 +19137,10 @@
         <v>1498</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="201" ht="15.15" spans="2:4">
@@ -19145,10 +19159,10 @@
         <v>1504</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="203" ht="15.15" spans="2:4">
@@ -19156,10 +19170,10 @@
         <v>1507</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="204" ht="15.15" spans="2:4">
@@ -19167,10 +19181,10 @@
         <v>1510</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="205" ht="15.15" spans="2:4">
@@ -19200,10 +19214,10 @@
         <v>1519</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="208" ht="15.15" spans="2:4">
@@ -19211,10 +19225,10 @@
         <v>1520</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="209" ht="15.15" spans="2:4">
@@ -19236,7 +19250,7 @@
         <v>1531</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="211" ht="15.15" spans="2:4">
@@ -19244,10 +19258,10 @@
         <v>1529</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="212" ht="15.15" spans="2:4">
@@ -19255,10 +19269,10 @@
         <v>1530</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="213" ht="15.15" spans="2:4">
@@ -19288,10 +19302,10 @@
         <v>1539</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="216" ht="15.15" spans="2:4">
@@ -19387,10 +19401,10 @@
         <v>1566</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="225" ht="15.15" spans="2:4">
@@ -19409,7 +19423,7 @@
         <v>1572</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>1574</v>
@@ -19420,7 +19434,7 @@
         <v>1575</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>1577</v>
@@ -19475,10 +19489,10 @@
         <v>1589</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="233" ht="15.15" spans="2:4">
@@ -19497,10 +19511,10 @@
         <v>1595</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="235" ht="15.15" spans="2:4">
@@ -19508,7 +19522,7 @@
         <v>1598</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>1600</v>
@@ -19544,7 +19558,7 @@
   <sheetData>
     <row r="18" spans="5:6">
       <c r="E18" s="1" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1142</v>
@@ -19552,10 +19566,10 @@
     </row>
     <row r="19" spans="5:6">
       <c r="E19" s="2" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="24" spans="5:6">
@@ -19568,10 +19582,10 @@
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="2" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
     </row>
   </sheetData>

--- a/Refactor_Mobile/Assets/Excels/LanguageExcel.xlsx
+++ b/Refactor_Mobile/Assets/Excels/LanguageExcel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="2551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="2575">
   <si>
     <t>KEY</t>
   </si>
@@ -5705,6 +5705,78 @@
   </si>
   <si>
     <t>Restore:Enemies restore 30% of their lost health after it completes the first 50% of route.</t>
+  </si>
+  <si>
+    <t>ACH_BILLIONS</t>
+  </si>
+  <si>
+    <t>人海战术</t>
+  </si>
+  <si>
+    <t>ACH_BILLIONSINFO</t>
+  </si>
+  <si>
+    <t>在一局战斗中重构超过50次</t>
+  </si>
+  <si>
+    <t>ACH_REFACTOR1</t>
+  </si>
+  <si>
+    <t>初级指挥</t>
+  </si>
+  <si>
+    <t>ACH_REFACTOR1INFO</t>
+  </si>
+  <si>
+    <t>累计完成5次重构</t>
+  </si>
+  <si>
+    <t>ACH_REFACTOR2</t>
+  </si>
+  <si>
+    <t>中级指挥</t>
+  </si>
+  <si>
+    <t>ACH_REFACTOR2INFO</t>
+  </si>
+  <si>
+    <t>累计完成30次重构</t>
+  </si>
+  <si>
+    <t>ACH_REFACTOR3</t>
+  </si>
+  <si>
+    <t>高级指挥</t>
+  </si>
+  <si>
+    <t>ACH_REFACTOR3INFO</t>
+  </si>
+  <si>
+    <t>累计完成100次重构</t>
+  </si>
+  <si>
+    <t>ACH_CAKE</t>
+  </si>
+  <si>
+    <t>小菜一叠</t>
+  </si>
+  <si>
+    <t>ACH_CAKEINFO</t>
+  </si>
+  <si>
+    <t>通过标准模式全部难度</t>
+  </si>
+  <si>
+    <t>ACH_EASY</t>
+  </si>
+  <si>
+    <t>全能掌控</t>
+  </si>
+  <si>
+    <t>ACH_EASYINFO</t>
+  </si>
+  <si>
+    <t>不损失1点生命值通关（标准模式难度4以上）</t>
   </si>
   <si>
     <t>Guide01</t>
@@ -8900,10 +8972,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E772"/>
+  <dimension ref="A1:E784"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A639" workbookViewId="0">
+      <selection activeCell="B650" sqref="B650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="42" customHeight="1" outlineLevelCol="4"/>
@@ -15942,699 +16014,699 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="639" customHeight="1" spans="1:3">
-      <c r="A639" s="5" t="s">
+    <row r="639" customHeight="1" spans="1:2">
+      <c r="A639" s="19" t="s">
         <v>1870</v>
       </c>
       <c r="B639" s="2" t="s">
         <v>1871</v>
       </c>
-      <c r="C639" s="2" t="s">
+    </row>
+    <row r="640" customHeight="1" spans="1:2">
+      <c r="A640" s="19" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="640" customHeight="1" spans="1:3">
-      <c r="A640" s="5" t="s">
+      <c r="B640" s="2" t="s">
         <v>1873</v>
       </c>
-      <c r="B640" s="2" t="s">
+    </row>
+    <row r="641" customHeight="1" spans="1:2">
+      <c r="A641" s="19" t="s">
         <v>1874</v>
       </c>
-      <c r="C640" s="2" t="s">
+      <c r="B641" s="2" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="641" customHeight="1" spans="1:3">
-      <c r="A641" s="5" t="s">
+    <row r="642" customHeight="1" spans="1:2">
+      <c r="A642" s="19" t="s">
         <v>1876</v>
       </c>
-      <c r="B641" s="2" t="s">
+      <c r="B642" s="2" t="s">
         <v>1877</v>
       </c>
-      <c r="C641" s="2" t="s">
+    </row>
+    <row r="643" customHeight="1" spans="1:2">
+      <c r="A643" s="19" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="642" customHeight="1" spans="1:3">
-      <c r="A642" s="5" t="s">
+      <c r="B643" s="2" t="s">
         <v>1879</v>
       </c>
-      <c r="B642" s="2" t="s">
+    </row>
+    <row r="644" customHeight="1" spans="1:2">
+      <c r="A644" s="19" t="s">
         <v>1880</v>
       </c>
-      <c r="C642" s="2" t="s">
+      <c r="B644" s="2" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="643" customHeight="1" spans="1:3">
-      <c r="A643" s="5" t="s">
+    <row r="645" customHeight="1" spans="1:2">
+      <c r="A645" s="19" t="s">
         <v>1882</v>
       </c>
-      <c r="B643" s="2" t="s">
+      <c r="B645" s="2" t="s">
         <v>1883</v>
       </c>
-      <c r="C643" s="2" t="s">
+    </row>
+    <row r="646" customHeight="1" spans="1:2">
+      <c r="A646" s="19" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="644" customHeight="1" spans="1:3">
-      <c r="A644" s="5" t="s">
+      <c r="B646" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="B644" s="2" t="s">
+    </row>
+    <row r="647" customHeight="1" spans="1:2">
+      <c r="A647" s="19" t="s">
         <v>1886</v>
       </c>
-      <c r="C644" s="2" t="s">
+      <c r="B647" s="2" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="645" customHeight="1" spans="1:3">
-      <c r="A645" s="5" t="s">
+    <row r="648" customHeight="1" spans="1:2">
+      <c r="A648" s="19" t="s">
         <v>1888</v>
       </c>
-      <c r="B645" s="2" t="s">
+      <c r="B648" s="2" t="s">
         <v>1889</v>
       </c>
-      <c r="C645" s="2" t="s">
+    </row>
+    <row r="649" customHeight="1" spans="1:2">
+      <c r="A649" s="19" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="646" customHeight="1" spans="1:3">
-      <c r="A646" s="5" t="s">
+      <c r="B649" s="2" t="s">
         <v>1891</v>
       </c>
-      <c r="B646" s="2" t="s">
+    </row>
+    <row r="650" customHeight="1" spans="1:2">
+      <c r="A650" s="19" t="s">
         <v>1892</v>
       </c>
-      <c r="C646" s="2" t="s">
+      <c r="B650" s="2" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="647" customHeight="1" spans="1:3">
-      <c r="A647" s="5" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B647" s="2" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C647" s="2" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="648" customHeight="1" spans="1:3">
-      <c r="A648" s="5" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B648" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C648" s="2" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="649" customHeight="1" spans="1:3">
-      <c r="A649" s="5" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B649" s="2" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C649" s="20" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="650" customHeight="1" spans="1:4">
-      <c r="A650" s="5" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B650" s="2" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C650" s="2" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D650" s="20"/>
     </row>
     <row r="651" customHeight="1" spans="1:3">
       <c r="A651" s="5" t="s">
-        <v>1906</v>
+        <v>1894</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1907</v>
+        <v>1895</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1908</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="652" customHeight="1" spans="1:3">
       <c r="A652" s="5" t="s">
-        <v>1909</v>
+        <v>1897</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1910</v>
-      </c>
-      <c r="C652" s="21" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="653" customHeight="1" spans="1:4">
+        <v>1898</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="653" customHeight="1" spans="1:3">
       <c r="A653" s="5" t="s">
-        <v>1912</v>
+        <v>1900</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1913</v>
-      </c>
-      <c r="C653" s="21" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D653" s="21"/>
-    </row>
-    <row r="654" customHeight="1" spans="1:4">
+        <v>1901</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="654" customHeight="1" spans="1:3">
       <c r="A654" s="5" t="s">
-        <v>1915</v>
+        <v>1903</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1916</v>
+        <v>1904</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D654" s="21"/>
+        <v>1905</v>
+      </c>
     </row>
     <row r="655" customHeight="1" spans="1:3">
       <c r="A655" s="5" t="s">
-        <v>1918</v>
+        <v>1906</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1919</v>
+        <v>1907</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1920</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="656" customHeight="1" spans="1:3">
       <c r="A656" s="5" t="s">
-        <v>1921</v>
+        <v>1909</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1922</v>
+        <v>1910</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>1923</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="657" customHeight="1" spans="1:3">
       <c r="A657" s="5" t="s">
-        <v>1924</v>
+        <v>1912</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1925</v>
+        <v>1913</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>1926</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="658" customHeight="1" spans="1:3">
       <c r="A658" s="5" t="s">
-        <v>1927</v>
+        <v>1915</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1928</v>
+        <v>1916</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>1929</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="659" customHeight="1" spans="1:3">
       <c r="A659" s="5" t="s">
-        <v>1930</v>
+        <v>1918</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1931</v>
+        <v>1919</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="660" customHeight="1" spans="1:3">
       <c r="A660" s="5" t="s">
-        <v>1933</v>
+        <v>1921</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1934</v>
+        <v>1922</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>1935</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="661" customHeight="1" spans="1:3">
       <c r="A661" s="5" t="s">
-        <v>1936</v>
+        <v>1924</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C661" s="2" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="662" customHeight="1" spans="1:3">
+        <v>1925</v>
+      </c>
+      <c r="C661" s="20" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="662" customHeight="1" spans="1:4">
       <c r="A662" s="5" t="s">
-        <v>1939</v>
+        <v>1927</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C662" s="20" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="663" customHeight="1" spans="1:4">
+        <v>1928</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D662" s="20"/>
+    </row>
+    <row r="663" customHeight="1" spans="1:3">
       <c r="A663" s="5" t="s">
-        <v>1942</v>
+        <v>1930</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C663" s="20" t="s">
-        <v>1944</v>
-      </c>
-      <c r="D663" s="20"/>
-    </row>
-    <row r="664" customHeight="1" spans="1:4">
+        <v>1931</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="664" customHeight="1" spans="1:3">
       <c r="A664" s="5" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C664" s="20" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D664" s="20"/>
+        <v>1934</v>
+      </c>
+      <c r="C664" s="21" t="s">
+        <v>1935</v>
+      </c>
     </row>
     <row r="665" customHeight="1" spans="1:4">
       <c r="A665" s="5" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C665" s="2" t="s">
-        <v>1950</v>
-      </c>
-      <c r="D665" s="20"/>
-    </row>
-    <row r="666" customHeight="1" spans="1:3">
+        <v>1937</v>
+      </c>
+      <c r="C665" s="21" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D665" s="21"/>
+    </row>
+    <row r="666" customHeight="1" spans="1:4">
       <c r="A666" s="5" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>1953</v>
-      </c>
+        <v>1941</v>
+      </c>
+      <c r="D666" s="21"/>
     </row>
     <row r="667" customHeight="1" spans="1:3">
       <c r="A667" s="5" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1955</v>
+        <v>1943</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>1956</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="668" customHeight="1" spans="1:3">
       <c r="A668" s="5" t="s">
-        <v>1957</v>
+        <v>1945</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="669" customHeight="1" spans="1:3">
       <c r="A669" s="5" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1961</v>
+        <v>1949</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>1962</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="670" customHeight="1" spans="1:3">
       <c r="A670" s="5" t="s">
-        <v>1963</v>
+        <v>1951</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1964</v>
+        <v>1952</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>1965</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="671" customHeight="1" spans="1:3">
       <c r="A671" s="5" t="s">
-        <v>1966</v>
+        <v>1954</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1967</v>
+        <v>1955</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>1968</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="672" customHeight="1" spans="1:3">
       <c r="A672" s="5" t="s">
-        <v>1969</v>
+        <v>1957</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1970</v>
+        <v>1958</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>1971</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="673" customHeight="1" spans="1:3">
       <c r="A673" s="5" t="s">
-        <v>1972</v>
+        <v>1960</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1973</v>
+        <v>1961</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>1974</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="674" customHeight="1" spans="1:3">
       <c r="A674" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C674" s="20" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="675" customHeight="1" spans="1:4">
+      <c r="A675" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C675" s="20" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D675" s="20"/>
+    </row>
+    <row r="676" customHeight="1" spans="1:4">
+      <c r="A676" s="5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C676" s="20" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D676" s="20"/>
+    </row>
+    <row r="677" customHeight="1" spans="1:4">
+      <c r="A677" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D677" s="20"/>
+    </row>
+    <row r="678" customHeight="1" spans="1:3">
+      <c r="A678" s="5" t="s">
         <v>1975</v>
       </c>
-      <c r="B674" s="2" t="s">
+      <c r="B678" s="2" t="s">
         <v>1976</v>
       </c>
-      <c r="C674" s="2" t="s">
+      <c r="C678" s="2" t="s">
         <v>1977</v>
-      </c>
-    </row>
-    <row r="675" customHeight="1" spans="1:3">
-      <c r="A675" s="5" t="s">
-        <v>1978</v>
-      </c>
-      <c r="B675" s="2" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C675" s="2" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="676" customHeight="1" spans="1:3">
-      <c r="A676" s="5" t="s">
-        <v>1981</v>
-      </c>
-      <c r="B676" s="2" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C676" s="2" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="677" customHeight="1" spans="1:5">
-      <c r="A677" s="5" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B677" s="2" t="s">
-        <v>1985</v>
-      </c>
-      <c r="C677" s="2" t="s">
-        <v>1986</v>
-      </c>
-      <c r="E677" s="2" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="678" customHeight="1" spans="1:2">
-      <c r="A678" s="5" t="s">
-        <v>1988</v>
-      </c>
-      <c r="B678" s="2" t="s">
-        <v>1989</v>
       </c>
     </row>
     <row r="679" customHeight="1" spans="1:3">
       <c r="A679" s="5" t="s">
-        <v>1990</v>
+        <v>1978</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1991</v>
+        <v>1979</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>1992</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="680" customHeight="1" spans="1:3">
       <c r="A680" s="5" t="s">
-        <v>1993</v>
+        <v>1981</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1994</v>
+        <v>1982</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>1995</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="681" customHeight="1" spans="1:3">
       <c r="A681" s="5" t="s">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>1998</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="682" customHeight="1" spans="1:3">
       <c r="A682" s="5" t="s">
-        <v>1999</v>
+        <v>1987</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>2001</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="683" customHeight="1" spans="1:3">
       <c r="A683" s="5" t="s">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>2004</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="684" customHeight="1" spans="1:3">
       <c r="A684" s="5" t="s">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>2007</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="685" customHeight="1" spans="1:3">
       <c r="A685" s="5" t="s">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>2010</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="686" customHeight="1" spans="1:3">
       <c r="A686" s="5" t="s">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="687" customHeight="1" spans="1:3">
       <c r="A687" s="5" t="s">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>2016</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="688" customHeight="1" spans="1:3">
       <c r="A688" s="5" t="s">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="689" customHeight="1" spans="1:3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="689" customHeight="1" spans="1:5">
       <c r="A689" s="5" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="690" customHeight="1" spans="1:3">
+        <v>2010</v>
+      </c>
+      <c r="E689" s="2" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="690" customHeight="1" spans="1:2">
       <c r="A690" s="5" t="s">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C690" s="2" t="s">
-        <v>2025</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="691" customHeight="1" spans="1:3">
       <c r="A691" s="5" t="s">
-        <v>2026</v>
+        <v>2014</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>2027</v>
+        <v>2015</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>2028</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="692" customHeight="1" spans="1:3">
       <c r="A692" s="5" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="693" customHeight="1" spans="1:3">
+      <c r="A693" s="5" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="694" customHeight="1" spans="1:3">
+      <c r="A694" s="5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="695" customHeight="1" spans="1:3">
+      <c r="A695" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="696" customHeight="1" spans="1:3">
+      <c r="A696" s="5" t="s">
         <v>2029</v>
       </c>
-      <c r="B692" s="2" t="s">
+      <c r="B696" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="C692" s="2" t="s">
+      <c r="C696" s="2" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="693" customHeight="1" spans="1:2">
-      <c r="A693" s="5" t="s">
+    <row r="697" customHeight="1" spans="1:3">
+      <c r="A697" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="B693" s="22" t="s">
+      <c r="B697" s="2" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="694" customHeight="1" spans="1:2">
-      <c r="A694" s="5" t="s">
+      <c r="C697" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="B694" s="22" t="s">
+    </row>
+    <row r="698" customHeight="1" spans="1:3">
+      <c r="A698" s="5" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="695" customHeight="1" spans="1:2">
-      <c r="A695" s="5" t="s">
+      <c r="B698" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="B695" s="22" t="s">
+      <c r="C698" s="2" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="696" customHeight="1" spans="1:2">
-      <c r="A696" s="5" t="s">
+    <row r="699" customHeight="1" spans="1:3">
+      <c r="A699" s="5" t="s">
         <v>2038</v>
       </c>
-      <c r="B696" s="22" t="s">
+      <c r="B699" s="2" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="697" customHeight="1" spans="1:2">
-      <c r="A697" s="5" t="s">
+      <c r="C699" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="B697" s="22" t="s">
+    </row>
+    <row r="700" customHeight="1" spans="1:3">
+      <c r="A700" s="5" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="698" customHeight="1" spans="1:2">
-      <c r="A698" s="5" t="s">
+      <c r="B700" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="B698" s="22" t="s">
+      <c r="C700" s="2" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="699" customHeight="1" spans="1:2">
-      <c r="A699" s="5" t="s">
+    <row r="701" customHeight="1" spans="1:3">
+      <c r="A701" s="5" t="s">
         <v>2044</v>
       </c>
-      <c r="B699" s="22" t="s">
+      <c r="B701" s="2" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="700" customHeight="1" spans="1:2">
-      <c r="A700" s="5" t="s">
+      <c r="C701" s="2" t="s">
         <v>2046</v>
       </c>
-      <c r="B700" s="22" t="s">
+    </row>
+    <row r="702" customHeight="1" spans="1:3">
+      <c r="A702" s="5" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="701" customHeight="1" spans="1:2">
-      <c r="A701" s="5" t="s">
+      <c r="B702" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="B701" s="22" t="s">
+      <c r="C702" s="2" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="702" customHeight="1" spans="1:2">
-      <c r="A702" s="5" t="s">
+    <row r="703" customHeight="1" spans="1:3">
+      <c r="A703" s="5" t="s">
         <v>2050</v>
       </c>
-      <c r="B702" s="22" t="s">
+      <c r="B703" s="2" t="s">
         <v>2051</v>
       </c>
-    </row>
-    <row r="703" customHeight="1" spans="1:2">
-      <c r="A703" s="5" t="s">
+      <c r="C703" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="B703" s="22" t="s">
+    </row>
+    <row r="704" customHeight="1" spans="1:3">
+      <c r="A704" s="5" t="s">
         <v>2053</v>
       </c>
-    </row>
-    <row r="704" customHeight="1" spans="1:2">
-      <c r="A704" s="5" t="s">
+      <c r="B704" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="B704" s="22" t="s">
+      <c r="C704" s="2" t="s">
         <v>2055</v>
       </c>
     </row>
@@ -16730,607 +16802,703 @@
       <c r="A716" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="B716" s="22"/>
-    </row>
-    <row r="717" customHeight="1" spans="1:3">
+      <c r="B716" s="22" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="717" customHeight="1" spans="1:2">
       <c r="A717" s="5" t="s">
-        <v>2079</v>
-      </c>
-      <c r="B717" s="2" t="s">
         <v>2080</v>
       </c>
-      <c r="C717" s="2" t="s">
+      <c r="B717" s="22" t="s">
         <v>2081</v>
       </c>
     </row>
-    <row r="718" customHeight="1" spans="1:3">
+    <row r="718" customHeight="1" spans="1:2">
       <c r="A718" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="B718" s="2" t="s">
+      <c r="B718" s="22" t="s">
         <v>2083</v>
       </c>
-      <c r="C718" s="2" t="s">
+    </row>
+    <row r="719" customHeight="1" spans="1:2">
+      <c r="A719" s="5" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="719" customHeight="1" spans="1:3">
-      <c r="A719" s="5" t="s">
+      <c r="B719" s="22" t="s">
         <v>2085</v>
       </c>
-      <c r="B719" s="2" t="s">
+    </row>
+    <row r="720" customHeight="1" spans="1:2">
+      <c r="A720" s="5" t="s">
         <v>2086</v>
       </c>
-      <c r="C719" s="2" t="s">
+      <c r="B720" s="22" t="s">
         <v>2087</v>
       </c>
     </row>
-    <row r="720" customHeight="1" spans="1:3">
-      <c r="A720" s="5" t="s">
+    <row r="721" customHeight="1" spans="1:2">
+      <c r="A721" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="B720" s="2" t="s">
+      <c r="B721" s="22" t="s">
         <v>2089</v>
       </c>
-      <c r="C720" s="2" t="s">
+    </row>
+    <row r="722" customHeight="1" spans="1:2">
+      <c r="A722" s="5" t="s">
         <v>2090</v>
       </c>
-    </row>
-    <row r="721" customHeight="1" spans="1:3">
-      <c r="A721" s="5" t="s">
+      <c r="B722" s="22" t="s">
         <v>2091</v>
       </c>
-      <c r="B721" s="2" t="s">
+    </row>
+    <row r="723" customHeight="1" spans="1:2">
+      <c r="A723" s="5" t="s">
         <v>2092</v>
       </c>
-      <c r="C721" s="2" t="s">
+      <c r="B723" s="22" t="s">
         <v>2093</v>
       </c>
     </row>
-    <row r="722" customHeight="1" spans="1:3">
-      <c r="A722" s="5" t="s">
+    <row r="724" customHeight="1" spans="1:2">
+      <c r="A724" s="5" t="s">
         <v>2094</v>
       </c>
-      <c r="B722" s="2" t="s">
+      <c r="B724" s="22" t="s">
         <v>2095</v>
       </c>
-      <c r="C722" s="2" t="s">
+    </row>
+    <row r="725" customHeight="1" spans="1:2">
+      <c r="A725" s="5" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="723" customHeight="1" spans="1:3">
-      <c r="A723" s="5" t="s">
+      <c r="B725" s="22" t="s">
         <v>2097</v>
       </c>
-      <c r="B723" s="2" t="s">
+    </row>
+    <row r="726" customHeight="1" spans="1:2">
+      <c r="A726" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="C723" s="2" t="s">
+      <c r="B726" s="22" t="s">
         <v>2099</v>
       </c>
     </row>
-    <row r="724" customHeight="1" spans="1:1">
-      <c r="A724" s="5" t="s">
+    <row r="727" customHeight="1" spans="1:2">
+      <c r="A727" s="5" t="s">
         <v>2100</v>
       </c>
-    </row>
-    <row r="725" customHeight="1" spans="1:3">
-      <c r="A725" s="5" t="s">
+      <c r="B727" s="22" t="s">
         <v>2101</v>
       </c>
-      <c r="B725" s="2" t="s">
+    </row>
+    <row r="728" customHeight="1" spans="1:2">
+      <c r="A728" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="C725" s="2" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="726" customHeight="1" spans="1:3">
-      <c r="A726" s="5" t="s">
-        <v>2104</v>
-      </c>
-      <c r="B726" s="2" t="s">
-        <v>2105</v>
-      </c>
-      <c r="C726" s="2" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="727" customHeight="1" spans="1:3">
-      <c r="A727" s="5" t="s">
-        <v>2107</v>
-      </c>
-      <c r="B727" s="2" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C727" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="728" customHeight="1" spans="1:3">
-      <c r="A728" s="5" t="s">
-        <v>2110</v>
-      </c>
-      <c r="B728" s="2" t="s">
-        <v>2111</v>
-      </c>
-      <c r="C728" s="2" t="s">
-        <v>2112</v>
-      </c>
+      <c r="B728" s="22"/>
     </row>
     <row r="729" customHeight="1" spans="1:3">
       <c r="A729" s="5" t="s">
-        <v>2113</v>
+        <v>2103</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>2114</v>
+        <v>2104</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>2115</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="730" customHeight="1" spans="1:3">
       <c r="A730" s="5" t="s">
-        <v>2116</v>
+        <v>2106</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>2118</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="731" customHeight="1" spans="1:3">
       <c r="A731" s="5" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="732" customHeight="1" spans="1:3">
       <c r="A732" s="5" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="733" customHeight="1" spans="1:3">
       <c r="A733" s="5" t="s">
-        <v>2125</v>
+        <v>2115</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>2126</v>
+        <v>2116</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>2127</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="734" customHeight="1" spans="1:3">
       <c r="A734" s="5" t="s">
-        <v>2128</v>
+        <v>2118</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>2129</v>
+        <v>2119</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>2130</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="735" customHeight="1" spans="1:3">
       <c r="A735" s="5" t="s">
-        <v>2131</v>
+        <v>2121</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>2132</v>
+        <v>2122</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="736" customHeight="1" spans="1:3">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="736" customHeight="1" spans="1:1">
       <c r="A736" s="5" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B736" s="2" t="s">
-        <v>2135</v>
-      </c>
-      <c r="C736" s="2" t="s">
-        <v>2136</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="737" customHeight="1" spans="1:3">
       <c r="A737" s="5" t="s">
-        <v>2137</v>
+        <v>2125</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>2138</v>
+        <v>2126</v>
       </c>
       <c r="C737" s="2" t="s">
-        <v>2139</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="738" customHeight="1" spans="1:3">
       <c r="A738" s="5" t="s">
-        <v>2140</v>
+        <v>2128</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>2142</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="739" customHeight="1" spans="1:3">
       <c r="A739" s="5" t="s">
-        <v>2143</v>
+        <v>2131</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>2144</v>
+        <v>2132</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>2145</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="740" customHeight="1" spans="1:3">
       <c r="A740" s="5" t="s">
-        <v>2146</v>
+        <v>2134</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>2147</v>
+        <v>2135</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>2148</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="741" customHeight="1" spans="1:3">
       <c r="A741" s="5" t="s">
-        <v>2149</v>
+        <v>2137</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>2150</v>
+        <v>2138</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>2151</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="742" customHeight="1" spans="1:3">
       <c r="A742" s="5" t="s">
-        <v>2152</v>
+        <v>2140</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>2153</v>
+        <v>2141</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="743" customHeight="1" spans="1:1">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="743" customHeight="1" spans="1:3">
       <c r="A743" s="5" t="s">
-        <v>2155</v>
+        <v>2143</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>2145</v>
       </c>
     </row>
     <row r="744" customHeight="1" spans="1:3">
       <c r="A744" s="5" t="s">
-        <v>2156</v>
+        <v>2146</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>2157</v>
+        <v>2147</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>2158</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="745" customHeight="1" spans="1:3">
       <c r="A745" s="5" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="746" customHeight="1" spans="1:3">
+      <c r="A746" s="5" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="747" customHeight="1" spans="1:3">
+      <c r="A747" s="5" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="748" customHeight="1" spans="1:3">
+      <c r="A748" s="5" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B748" s="2" t="s">
         <v>2159</v>
       </c>
-      <c r="B745" s="2" t="s">
+      <c r="C748" s="2" t="s">
         <v>2160</v>
       </c>
-      <c r="C745" s="2" t="s">
+    </row>
+    <row r="749" customHeight="1" spans="1:3">
+      <c r="A749" s="5" t="s">
         <v>2161</v>
       </c>
-    </row>
-    <row r="746" customHeight="1" spans="1:1">
-      <c r="A746" s="23" t="s">
+      <c r="B749" s="2" t="s">
         <v>2162</v>
       </c>
-    </row>
-    <row r="747" customHeight="1" spans="1:3">
-      <c r="A747" s="23" t="s">
+      <c r="C749" s="2" t="s">
         <v>2163</v>
       </c>
-      <c r="B747" s="2" t="s">
+    </row>
+    <row r="750" customHeight="1" spans="1:3">
+      <c r="A750" s="5" t="s">
         <v>2164</v>
       </c>
-      <c r="C747" s="2" t="s">
+      <c r="B750" s="2" t="s">
         <v>2165</v>
       </c>
-    </row>
-    <row r="748" customHeight="1" spans="1:4">
-      <c r="A748" s="23" t="s">
+      <c r="C750" s="2" t="s">
         <v>2166</v>
       </c>
-      <c r="B748" s="2" t="s">
+    </row>
+    <row r="751" customHeight="1" spans="1:3">
+      <c r="A751" s="5" t="s">
         <v>2167</v>
       </c>
-      <c r="C748" s="2" t="s">
+      <c r="B751" s="2" t="s">
         <v>2168</v>
       </c>
-      <c r="D748" s="2" t="s">
+      <c r="C751" s="2" t="s">
         <v>2169</v>
       </c>
     </row>
-    <row r="749" customHeight="1" spans="1:3">
-      <c r="A749" s="23" t="s">
+    <row r="752" customHeight="1" spans="1:3">
+      <c r="A752" s="5" t="s">
         <v>2170</v>
       </c>
-      <c r="B749" s="2" t="s">
+      <c r="B752" s="2" t="s">
         <v>2171</v>
       </c>
-      <c r="C749" s="2" t="s">
+      <c r="C752" s="2" t="s">
         <v>2172</v>
       </c>
     </row>
-    <row r="750" customHeight="1" spans="1:3">
-      <c r="A750" s="23" t="s">
+    <row r="753" customHeight="1" spans="1:3">
+      <c r="A753" s="5" t="s">
         <v>2173</v>
       </c>
-      <c r="B750" s="2" t="s">
+      <c r="B753" s="2" t="s">
         <v>2174</v>
       </c>
-      <c r="C750" s="2" t="s">
+      <c r="C753" s="2" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="751" customHeight="1" spans="1:3">
-      <c r="A751" s="23" t="s">
+    <row r="754" customHeight="1" spans="1:3">
+      <c r="A754" s="5" t="s">
         <v>2176</v>
       </c>
-      <c r="B751" s="2" t="s">
+      <c r="B754" s="2" t="s">
         <v>2177</v>
       </c>
-      <c r="C751" s="2" t="s">
+      <c r="C754" s="2" t="s">
         <v>2178</v>
       </c>
     </row>
-    <row r="752" customHeight="1" spans="1:3">
-      <c r="A752" s="23" t="s">
+    <row r="755" customHeight="1" spans="1:1">
+      <c r="A755" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="B752" s="2" t="s">
+    </row>
+    <row r="756" customHeight="1" spans="1:3">
+      <c r="A756" s="5" t="s">
         <v>2180</v>
       </c>
-      <c r="C752" s="2" t="s">
+      <c r="B756" s="2" t="s">
         <v>2181</v>
       </c>
-    </row>
-    <row r="753" customHeight="1" spans="1:3">
-      <c r="A753" s="23" t="s">
+      <c r="C756" s="2" t="s">
         <v>2182</v>
       </c>
-      <c r="B753" s="2" t="s">
+    </row>
+    <row r="757" customHeight="1" spans="1:3">
+      <c r="A757" s="5" t="s">
         <v>2183</v>
       </c>
-      <c r="C753" s="2" t="s">
+      <c r="B757" s="2" t="s">
         <v>2184</v>
       </c>
-    </row>
-    <row r="754" customHeight="1" spans="1:4">
-      <c r="A754" s="23" t="s">
+      <c r="C757" s="2" t="s">
         <v>2185</v>
       </c>
-      <c r="B754" s="2" t="s">
+    </row>
+    <row r="758" customHeight="1" spans="1:1">
+      <c r="A758" s="23" t="s">
         <v>2186</v>
-      </c>
-      <c r="C754" s="2" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D754" s="2" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="755" customHeight="1" spans="1:4">
-      <c r="A755" s="23" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D755" s="2" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="756" customHeight="1" spans="1:3">
-      <c r="A756" s="23" t="s">
-        <v>2191</v>
-      </c>
-      <c r="B756" s="2" t="s">
-        <v>2192</v>
-      </c>
-      <c r="C756" s="2" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="757" customHeight="1" spans="1:3">
-      <c r="A757" s="23" t="s">
-        <v>2194</v>
-      </c>
-      <c r="B757" s="2" t="s">
-        <v>2195</v>
-      </c>
-      <c r="C757" s="2" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="758" customHeight="1" spans="1:3">
-      <c r="A758" s="23" t="s">
-        <v>2197</v>
-      </c>
-      <c r="B758" s="2" t="s">
-        <v>2198</v>
-      </c>
-      <c r="C758" s="2" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="759" customHeight="1" spans="1:3">
       <c r="A759" s="23" t="s">
-        <v>2200</v>
+        <v>2187</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>2201</v>
+        <v>2188</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="760" customHeight="1" spans="1:3">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="760" customHeight="1" spans="1:4">
       <c r="A760" s="23" t="s">
-        <v>2203</v>
+        <v>2190</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>2204</v>
+        <v>2191</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>2205</v>
+        <v>2192</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>2193</v>
       </c>
     </row>
     <row r="761" customHeight="1" spans="1:3">
       <c r="A761" s="23" t="s">
-        <v>2206</v>
+        <v>2194</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>2207</v>
+        <v>2195</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>2208</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="762" customHeight="1" spans="1:3">
       <c r="A762" s="23" t="s">
-        <v>2209</v>
+        <v>2197</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>2210</v>
+        <v>2198</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>2211</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="763" customHeight="1" spans="1:3">
       <c r="A763" s="23" t="s">
-        <v>2212</v>
+        <v>2200</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>2213</v>
+        <v>2201</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>2214</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="764" customHeight="1" spans="1:3">
       <c r="A764" s="23" t="s">
-        <v>2215</v>
+        <v>2203</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>2216</v>
+        <v>2204</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>2217</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="765" customHeight="1" spans="1:3">
       <c r="A765" s="23" t="s">
-        <v>2218</v>
+        <v>2206</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>2219</v>
+        <v>2207</v>
       </c>
       <c r="C765" s="2" t="s">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="766" customHeight="1" spans="1:3">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="766" customHeight="1" spans="1:4">
       <c r="A766" s="23" t="s">
-        <v>2221</v>
+        <v>2209</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>2222</v>
+        <v>2210</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="767" customHeight="1" spans="1:3">
+        <v>2211</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="767" customHeight="1" spans="1:4">
       <c r="A767" s="23" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B767" s="2" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C767" s="2" t="s">
-        <v>2226</v>
+        <v>2213</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>2214</v>
       </c>
     </row>
     <row r="768" customHeight="1" spans="1:3">
       <c r="A768" s="23" t="s">
-        <v>2227</v>
+        <v>2215</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>2228</v>
+        <v>2216</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>2229</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="769" customHeight="1" spans="1:3">
       <c r="A769" s="23" t="s">
-        <v>2230</v>
+        <v>2218</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>2231</v>
+        <v>2219</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>2232</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="770" customHeight="1" spans="1:3">
       <c r="A770" s="23" t="s">
-        <v>2233</v>
+        <v>2221</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>2234</v>
+        <v>2222</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>2235</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="771" customHeight="1" spans="1:3">
       <c r="A771" s="23" t="s">
-        <v>2236</v>
+        <v>2224</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>2237</v>
+        <v>2225</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>2238</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="772" customHeight="1" spans="1:3">
       <c r="A772" s="23" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="773" customHeight="1" spans="1:3">
+      <c r="A773" s="23" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="774" customHeight="1" spans="1:3">
+      <c r="A774" s="23" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="775" customHeight="1" spans="1:3">
+      <c r="A775" s="23" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="776" customHeight="1" spans="1:3">
+      <c r="A776" s="23" t="s">
         <v>2239</v>
       </c>
-      <c r="B772" s="2" t="s">
+      <c r="B776" s="2" t="s">
         <v>2240</v>
       </c>
-      <c r="C772" s="2" t="s">
+      <c r="C776" s="2" t="s">
         <v>2241</v>
+      </c>
+    </row>
+    <row r="777" customHeight="1" spans="1:3">
+      <c r="A777" s="23" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="778" customHeight="1" spans="1:3">
+      <c r="A778" s="23" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="779" customHeight="1" spans="1:3">
+      <c r="A779" s="23" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="780" customHeight="1" spans="1:3">
+      <c r="A780" s="23" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="781" customHeight="1" spans="1:3">
+      <c r="A781" s="23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="782" customHeight="1" spans="1:3">
+      <c r="A782" s="23" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="783" customHeight="1" spans="1:3">
+      <c r="A783" s="23" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="784" customHeight="1" spans="1:3">
+      <c r="A784" s="23" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>2265</v>
       </c>
     </row>
   </sheetData>
@@ -17361,10 +17529,10 @@
         <v>966</v>
       </c>
       <c r="B1" t="s">
-        <v>2242</v>
+        <v>2266</v>
       </c>
       <c r="C1" t="s">
-        <v>2243</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:3">
@@ -17372,10 +17540,10 @@
         <v>969</v>
       </c>
       <c r="B2" t="s">
-        <v>2244</v>
+        <v>2268</v>
       </c>
       <c r="C2" t="s">
-        <v>2245</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:3">
@@ -17383,10 +17551,10 @@
         <v>972</v>
       </c>
       <c r="B3" t="s">
-        <v>2246</v>
+        <v>2270</v>
       </c>
       <c r="C3" t="s">
-        <v>2247</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:3">
@@ -17394,10 +17562,10 @@
         <v>975</v>
       </c>
       <c r="B4" t="s">
-        <v>2248</v>
+        <v>2272</v>
       </c>
       <c r="C4" t="s">
-        <v>2249</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:3">
@@ -17405,10 +17573,10 @@
         <v>978</v>
       </c>
       <c r="B5" t="s">
-        <v>2250</v>
+        <v>2274</v>
       </c>
       <c r="C5" t="s">
-        <v>2251</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:3">
@@ -17416,10 +17584,10 @@
         <v>981</v>
       </c>
       <c r="B6" t="s">
-        <v>2252</v>
+        <v>2276</v>
       </c>
       <c r="C6" t="s">
-        <v>2253</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:3">
@@ -17427,10 +17595,10 @@
         <v>984</v>
       </c>
       <c r="B7" t="s">
-        <v>2254</v>
+        <v>2278</v>
       </c>
       <c r="C7" t="s">
-        <v>2255</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:3">
@@ -17438,10 +17606,10 @@
         <v>987</v>
       </c>
       <c r="B8" t="s">
-        <v>2256</v>
+        <v>2280</v>
       </c>
       <c r="C8" t="s">
-        <v>2257</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:3">
@@ -17449,10 +17617,10 @@
         <v>990</v>
       </c>
       <c r="B9" t="s">
-        <v>2258</v>
+        <v>2282</v>
       </c>
       <c r="C9" t="s">
-        <v>2259</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:3">
@@ -17460,10 +17628,10 @@
         <v>993</v>
       </c>
       <c r="B10" t="s">
-        <v>2260</v>
+        <v>2284</v>
       </c>
       <c r="C10" t="s">
-        <v>2261</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:3">
@@ -17471,10 +17639,10 @@
         <v>996</v>
       </c>
       <c r="B11" t="s">
-        <v>2262</v>
+        <v>2286</v>
       </c>
       <c r="C11" t="s">
-        <v>2263</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:3">
@@ -17482,10 +17650,10 @@
         <v>999</v>
       </c>
       <c r="B12" t="s">
-        <v>2264</v>
+        <v>2288</v>
       </c>
       <c r="C12" t="s">
-        <v>2265</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:3">
@@ -17493,10 +17661,10 @@
         <v>1002</v>
       </c>
       <c r="B13" t="s">
-        <v>2266</v>
+        <v>2290</v>
       </c>
       <c r="C13" t="s">
-        <v>2267</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:3">
@@ -17504,10 +17672,10 @@
         <v>1005</v>
       </c>
       <c r="B14" t="s">
-        <v>2268</v>
+        <v>2292</v>
       </c>
       <c r="C14" t="s">
-        <v>2269</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:3">
@@ -17515,10 +17683,10 @@
         <v>1008</v>
       </c>
       <c r="B15" t="s">
-        <v>2270</v>
+        <v>2294</v>
       </c>
       <c r="C15" t="s">
-        <v>2271</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:3">
@@ -17526,10 +17694,10 @@
         <v>1011</v>
       </c>
       <c r="B16" t="s">
-        <v>2272</v>
+        <v>2296</v>
       </c>
       <c r="C16" t="s">
-        <v>2273</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:3">
@@ -17537,10 +17705,10 @@
         <v>1014</v>
       </c>
       <c r="B17" t="s">
-        <v>2274</v>
+        <v>2298</v>
       </c>
       <c r="C17" t="s">
-        <v>2275</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="18" ht="15.15" spans="1:3">
@@ -17548,10 +17716,10 @@
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>2276</v>
+        <v>2300</v>
       </c>
       <c r="C18" t="s">
-        <v>2277</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="19" ht="15.15" spans="1:3">
@@ -17559,10 +17727,10 @@
         <v>1020</v>
       </c>
       <c r="B19" t="s">
-        <v>2278</v>
+        <v>2302</v>
       </c>
       <c r="C19" t="s">
-        <v>2279</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:3">
@@ -17570,10 +17738,10 @@
         <v>1023</v>
       </c>
       <c r="B20" t="s">
-        <v>2280</v>
+        <v>2304</v>
       </c>
       <c r="C20" t="s">
-        <v>2281</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="21" ht="15.15" spans="1:3">
@@ -17581,10 +17749,10 @@
         <v>1026</v>
       </c>
       <c r="B21" t="s">
-        <v>2282</v>
+        <v>2306</v>
       </c>
       <c r="C21" t="s">
-        <v>2283</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="22" ht="15.15" spans="1:3">
@@ -17592,10 +17760,10 @@
         <v>1029</v>
       </c>
       <c r="B22" t="s">
-        <v>2284</v>
+        <v>2308</v>
       </c>
       <c r="C22" t="s">
-        <v>2285</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="23" ht="15.15" spans="1:3">
@@ -17603,10 +17771,10 @@
         <v>1032</v>
       </c>
       <c r="B23" t="s">
-        <v>2286</v>
+        <v>2310</v>
       </c>
       <c r="C23" t="s">
-        <v>2287</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="24" ht="15.15" spans="1:3">
@@ -17614,10 +17782,10 @@
         <v>1035</v>
       </c>
       <c r="B24" t="s">
-        <v>2288</v>
+        <v>2312</v>
       </c>
       <c r="C24" t="s">
-        <v>2289</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="25" ht="15.15" spans="1:3">
@@ -17625,10 +17793,10 @@
         <v>1038</v>
       </c>
       <c r="B25" t="s">
-        <v>2290</v>
+        <v>2314</v>
       </c>
       <c r="C25" t="s">
-        <v>2291</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="26" ht="15.15" spans="1:3">
@@ -17636,10 +17804,10 @@
         <v>1041</v>
       </c>
       <c r="B26" t="s">
-        <v>2292</v>
+        <v>2316</v>
       </c>
       <c r="C26" t="s">
-        <v>2293</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="27" ht="15.15" spans="1:3">
@@ -17647,10 +17815,10 @@
         <v>1044</v>
       </c>
       <c r="B27" t="s">
-        <v>2294</v>
+        <v>2318</v>
       </c>
       <c r="C27" t="s">
-        <v>2295</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="28" ht="15.15" spans="1:3">
@@ -17658,10 +17826,10 @@
         <v>1047</v>
       </c>
       <c r="B28" t="s">
-        <v>2296</v>
+        <v>2320</v>
       </c>
       <c r="C28" t="s">
-        <v>2297</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="29" ht="15.15" spans="1:3">
@@ -17669,10 +17837,10 @@
         <v>1050</v>
       </c>
       <c r="B29" t="s">
-        <v>2298</v>
+        <v>2322</v>
       </c>
       <c r="C29" t="s">
-        <v>2299</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="30" ht="15.15" spans="1:3">
@@ -17680,10 +17848,10 @@
         <v>1051</v>
       </c>
       <c r="B30" t="s">
-        <v>2300</v>
+        <v>2324</v>
       </c>
       <c r="C30" t="s">
-        <v>2301</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="31" ht="15.15" spans="1:3">
@@ -17691,10 +17859,10 @@
         <v>1054</v>
       </c>
       <c r="B31" t="s">
-        <v>2302</v>
+        <v>2326</v>
       </c>
       <c r="C31" t="s">
-        <v>2303</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="32" ht="15.15" spans="1:3">
@@ -17702,10 +17870,10 @@
         <v>1057</v>
       </c>
       <c r="B32" t="s">
-        <v>2304</v>
+        <v>2328</v>
       </c>
       <c r="C32" t="s">
-        <v>2305</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="33" ht="15.15" spans="1:3">
@@ -17713,10 +17881,10 @@
         <v>1060</v>
       </c>
       <c r="B33" t="s">
-        <v>2306</v>
+        <v>2330</v>
       </c>
       <c r="C33" t="s">
-        <v>2307</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="34" ht="15.15" spans="1:3">
@@ -17724,10 +17892,10 @@
         <v>1063</v>
       </c>
       <c r="B34" t="s">
-        <v>2308</v>
+        <v>2332</v>
       </c>
       <c r="C34" t="s">
-        <v>2309</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="35" ht="15.15" spans="1:3">
@@ -17735,10 +17903,10 @@
         <v>1066</v>
       </c>
       <c r="B35" t="s">
-        <v>2310</v>
+        <v>2334</v>
       </c>
       <c r="C35" t="s">
-        <v>2311</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="36" ht="15.15" spans="1:3">
@@ -17746,10 +17914,10 @@
         <v>1069</v>
       </c>
       <c r="B36" t="s">
-        <v>2312</v>
+        <v>2336</v>
       </c>
       <c r="C36" t="s">
-        <v>2313</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="37" ht="15.15" spans="1:3">
@@ -17757,10 +17925,10 @@
         <v>1072</v>
       </c>
       <c r="B37" t="s">
-        <v>2314</v>
+        <v>2338</v>
       </c>
       <c r="C37" t="s">
-        <v>2315</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="38" ht="15.15" spans="1:3">
@@ -17768,10 +17936,10 @@
         <v>1075</v>
       </c>
       <c r="B38" t="s">
-        <v>2316</v>
+        <v>2340</v>
       </c>
       <c r="C38" t="s">
-        <v>2317</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="39" ht="15.15" spans="1:3">
@@ -17779,10 +17947,10 @@
         <v>1078</v>
       </c>
       <c r="B39" t="s">
-        <v>2318</v>
+        <v>2342</v>
       </c>
       <c r="C39" t="s">
-        <v>2319</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="40" ht="15.15" spans="1:3">
@@ -17790,10 +17958,10 @@
         <v>1081</v>
       </c>
       <c r="B40" t="s">
-        <v>2320</v>
+        <v>2344</v>
       </c>
       <c r="C40" t="s">
-        <v>2321</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="41" ht="15.15" spans="1:3">
@@ -17801,10 +17969,10 @@
         <v>1084</v>
       </c>
       <c r="B41" t="s">
-        <v>2322</v>
+        <v>2346</v>
       </c>
       <c r="C41" t="s">
-        <v>2323</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="42" ht="15.15" spans="1:3">
@@ -17812,10 +17980,10 @@
         <v>1087</v>
       </c>
       <c r="B42" t="s">
-        <v>2324</v>
+        <v>2348</v>
       </c>
       <c r="C42" t="s">
-        <v>2325</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="43" ht="15.15" spans="1:3">
@@ -17823,10 +17991,10 @@
         <v>1090</v>
       </c>
       <c r="B43" t="s">
-        <v>2326</v>
+        <v>2350</v>
       </c>
       <c r="C43" t="s">
-        <v>2327</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="44" ht="15.15" spans="1:3">
@@ -17834,10 +18002,10 @@
         <v>1093</v>
       </c>
       <c r="B44" t="s">
-        <v>2328</v>
+        <v>2352</v>
       </c>
       <c r="C44" t="s">
-        <v>2329</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="45" ht="15.15" spans="1:3">
@@ -17845,10 +18013,10 @@
         <v>1095</v>
       </c>
       <c r="B45" t="s">
-        <v>2330</v>
+        <v>2354</v>
       </c>
       <c r="C45" t="s">
-        <v>2331</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="46" ht="15.15" spans="1:3">
@@ -17856,10 +18024,10 @@
         <v>1098</v>
       </c>
       <c r="B46" t="s">
-        <v>2332</v>
+        <v>2356</v>
       </c>
       <c r="C46" t="s">
-        <v>2333</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="47" ht="15.15" spans="1:3">
@@ -17867,10 +18035,10 @@
         <v>1101</v>
       </c>
       <c r="B47" t="s">
-        <v>2334</v>
+        <v>2358</v>
       </c>
       <c r="C47" t="s">
-        <v>2335</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="48" ht="15.15" spans="1:3">
@@ -17878,90 +18046,90 @@
         <v>1104</v>
       </c>
       <c r="B48" t="s">
-        <v>2336</v>
+        <v>2360</v>
       </c>
       <c r="C48" t="s">
-        <v>2337</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>2338</v>
+        <v>2362</v>
       </c>
       <c r="B50" t="s">
-        <v>2339</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>2340</v>
+        <v>2364</v>
       </c>
       <c r="B51" t="s">
-        <v>2341</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>2342</v>
+        <v>2366</v>
       </c>
       <c r="C54" t="s">
-        <v>2343</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>2344</v>
+        <v>2368</v>
       </c>
       <c r="C55" t="s">
-        <v>2345</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>2346</v>
+        <v>2370</v>
       </c>
       <c r="C56" t="s">
-        <v>2347</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>2348</v>
+        <v>2372</v>
       </c>
       <c r="C57" t="s">
-        <v>2349</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>2350</v>
+        <v>2374</v>
       </c>
       <c r="C58" t="s">
-        <v>2351</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>2352</v>
+        <v>2376</v>
       </c>
       <c r="C59" t="s">
-        <v>2353</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>2354</v>
+        <v>2378</v>
       </c>
       <c r="C60" t="s">
-        <v>2355</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>2356</v>
+        <v>2380</v>
       </c>
       <c r="C61" t="s">
-        <v>2357</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="65" ht="15.15" spans="2:4">
@@ -17980,10 +18148,10 @@
         <v>963</v>
       </c>
       <c r="C66" t="s">
-        <v>2358</v>
+        <v>2382</v>
       </c>
       <c r="D66" t="s">
-        <v>2359</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="67" ht="15.15" spans="2:4">
@@ -17991,10 +18159,10 @@
         <v>966</v>
       </c>
       <c r="C67" t="s">
-        <v>2342</v>
+        <v>2366</v>
       </c>
       <c r="D67" t="s">
-        <v>2343</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="68" ht="15.15" spans="2:4">
@@ -18002,10 +18170,10 @@
         <v>969</v>
       </c>
       <c r="C68" t="s">
-        <v>2344</v>
+        <v>2368</v>
       </c>
       <c r="D68" t="s">
-        <v>2345</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="69" ht="15.15" spans="2:4">
@@ -18013,10 +18181,10 @@
         <v>972</v>
       </c>
       <c r="C69" t="s">
-        <v>2346</v>
+        <v>2370</v>
       </c>
       <c r="D69" t="s">
-        <v>2347</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="70" ht="15.15" spans="2:4">
@@ -18024,10 +18192,10 @@
         <v>975</v>
       </c>
       <c r="C70" t="s">
-        <v>2348</v>
+        <v>2372</v>
       </c>
       <c r="D70" t="s">
-        <v>2349</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="71" ht="15.15" spans="2:4">
@@ -18035,10 +18203,10 @@
         <v>978</v>
       </c>
       <c r="C71" t="s">
-        <v>2350</v>
+        <v>2374</v>
       </c>
       <c r="D71" t="s">
-        <v>2351</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="72" ht="15.15" spans="2:4">
@@ -18046,10 +18214,10 @@
         <v>981</v>
       </c>
       <c r="C72" t="s">
-        <v>2352</v>
+        <v>2376</v>
       </c>
       <c r="D72" t="s">
-        <v>2353</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="73" ht="15.15" spans="2:4">
@@ -18057,10 +18225,10 @@
         <v>984</v>
       </c>
       <c r="C73" t="s">
-        <v>2354</v>
+        <v>2378</v>
       </c>
       <c r="D73" t="s">
-        <v>2355</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="74" ht="15.15" spans="2:4">
@@ -18068,10 +18236,10 @@
         <v>987</v>
       </c>
       <c r="C74" t="s">
-        <v>2356</v>
+        <v>2380</v>
       </c>
       <c r="D74" t="s">
-        <v>2357</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="75" ht="15.15" spans="2:4">
@@ -18079,10 +18247,10 @@
         <v>990</v>
       </c>
       <c r="C75" t="s">
-        <v>2360</v>
+        <v>2384</v>
       </c>
       <c r="D75" t="s">
-        <v>2361</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="76" ht="15.15" spans="2:4">
@@ -18090,10 +18258,10 @@
         <v>993</v>
       </c>
       <c r="C76" t="s">
-        <v>2362</v>
+        <v>2386</v>
       </c>
       <c r="D76" t="s">
-        <v>2363</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="77" ht="15.15" spans="2:4">
@@ -18101,10 +18269,10 @@
         <v>996</v>
       </c>
       <c r="C77" t="s">
-        <v>2364</v>
+        <v>2388</v>
       </c>
       <c r="D77" t="s">
-        <v>2365</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="78" ht="15.15" spans="2:4">
@@ -18112,10 +18280,10 @@
         <v>999</v>
       </c>
       <c r="C78" t="s">
-        <v>2366</v>
+        <v>2390</v>
       </c>
       <c r="D78" t="s">
-        <v>2367</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="79" ht="15.15" spans="2:4">
@@ -18123,10 +18291,10 @@
         <v>1002</v>
       </c>
       <c r="C79" t="s">
-        <v>2368</v>
+        <v>2392</v>
       </c>
       <c r="D79" t="s">
-        <v>2369</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="80" ht="15.15" spans="2:4">
@@ -18134,10 +18302,10 @@
         <v>1005</v>
       </c>
       <c r="C80" t="s">
-        <v>2370</v>
+        <v>2394</v>
       </c>
       <c r="D80" t="s">
-        <v>2371</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="81" ht="15.15" spans="2:4">
@@ -18145,10 +18313,10 @@
         <v>1008</v>
       </c>
       <c r="C81" t="s">
-        <v>2372</v>
+        <v>2396</v>
       </c>
       <c r="D81" t="s">
-        <v>2373</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="82" ht="15.15" spans="2:4">
@@ -18156,10 +18324,10 @@
         <v>1011</v>
       </c>
       <c r="C82" t="s">
-        <v>2374</v>
+        <v>2398</v>
       </c>
       <c r="D82" t="s">
-        <v>2375</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="83" ht="15.15" spans="2:4">
@@ -18167,10 +18335,10 @@
         <v>1014</v>
       </c>
       <c r="C83" t="s">
-        <v>2376</v>
+        <v>2400</v>
       </c>
       <c r="D83" t="s">
-        <v>2377</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="84" ht="15.15" spans="2:4">
@@ -18178,10 +18346,10 @@
         <v>1017</v>
       </c>
       <c r="C84" t="s">
-        <v>2378</v>
+        <v>2402</v>
       </c>
       <c r="D84" t="s">
-        <v>2379</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="85" ht="15.15" spans="2:4">
@@ -18189,10 +18357,10 @@
         <v>1020</v>
       </c>
       <c r="C85" t="s">
-        <v>2380</v>
+        <v>2404</v>
       </c>
       <c r="D85" t="s">
-        <v>2381</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="86" ht="15.15" spans="2:4">
@@ -18200,10 +18368,10 @@
         <v>1023</v>
       </c>
       <c r="C86" t="s">
-        <v>2382</v>
+        <v>2406</v>
       </c>
       <c r="D86" t="s">
-        <v>2383</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="87" ht="15.15" spans="2:4">
@@ -18211,10 +18379,10 @@
         <v>1026</v>
       </c>
       <c r="C87" t="s">
-        <v>2384</v>
+        <v>2408</v>
       </c>
       <c r="D87" t="s">
-        <v>2385</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="88" ht="15.15" spans="2:4">
@@ -18222,10 +18390,10 @@
         <v>1029</v>
       </c>
       <c r="C88" t="s">
-        <v>2386</v>
+        <v>2410</v>
       </c>
       <c r="D88" t="s">
-        <v>2387</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="89" ht="15.15" spans="2:4">
@@ -18233,10 +18401,10 @@
         <v>1032</v>
       </c>
       <c r="C89" t="s">
-        <v>2388</v>
+        <v>2412</v>
       </c>
       <c r="D89" t="s">
-        <v>2389</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="90" ht="15.15" spans="2:4">
@@ -18244,10 +18412,10 @@
         <v>1035</v>
       </c>
       <c r="C90" t="s">
-        <v>2390</v>
+        <v>2414</v>
       </c>
       <c r="D90" t="s">
-        <v>2391</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="91" ht="15.15" spans="2:4">
@@ -18255,10 +18423,10 @@
         <v>1038</v>
       </c>
       <c r="C91" t="s">
-        <v>2392</v>
+        <v>2416</v>
       </c>
       <c r="D91" t="s">
-        <v>2393</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="92" ht="15.15" spans="2:4">
@@ -18266,10 +18434,10 @@
         <v>1041</v>
       </c>
       <c r="C92" t="s">
-        <v>2394</v>
+        <v>2418</v>
       </c>
       <c r="D92" t="s">
-        <v>2395</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="93" ht="15.15" spans="2:4">
@@ -18277,10 +18445,10 @@
         <v>1044</v>
       </c>
       <c r="C93" t="s">
-        <v>2396</v>
+        <v>2420</v>
       </c>
       <c r="D93" t="s">
-        <v>2397</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="94" ht="15.15" spans="2:4">
@@ -18288,10 +18456,10 @@
         <v>1047</v>
       </c>
       <c r="C94" t="s">
-        <v>2398</v>
+        <v>2422</v>
       </c>
       <c r="D94" t="s">
-        <v>2399</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="95" ht="15.15" spans="2:4">
@@ -18299,10 +18467,10 @@
         <v>1050</v>
       </c>
       <c r="C95" t="s">
-        <v>2400</v>
+        <v>2424</v>
       </c>
       <c r="D95" t="s">
-        <v>2401</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="96" ht="15.15" spans="2:4">
@@ -18310,10 +18478,10 @@
         <v>1051</v>
       </c>
       <c r="C96" t="s">
-        <v>2402</v>
+        <v>2426</v>
       </c>
       <c r="D96" t="s">
-        <v>2403</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="97" ht="15.15" spans="2:4">
@@ -18321,10 +18489,10 @@
         <v>1054</v>
       </c>
       <c r="C97" t="s">
-        <v>2404</v>
+        <v>2428</v>
       </c>
       <c r="D97" t="s">
-        <v>2405</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="98" ht="15.15" spans="2:4">
@@ -18332,10 +18500,10 @@
         <v>1057</v>
       </c>
       <c r="C98" t="s">
-        <v>2406</v>
+        <v>2430</v>
       </c>
       <c r="D98" t="s">
-        <v>2407</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="99" ht="15.15" spans="2:4">
@@ -18343,10 +18511,10 @@
         <v>1060</v>
       </c>
       <c r="C99" t="s">
-        <v>2408</v>
+        <v>2432</v>
       </c>
       <c r="D99" t="s">
-        <v>2409</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="100" ht="15.15" spans="2:4">
@@ -18354,10 +18522,10 @@
         <v>1063</v>
       </c>
       <c r="C100" t="s">
-        <v>2410</v>
+        <v>2434</v>
       </c>
       <c r="D100" t="s">
-        <v>2411</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="101" ht="15.15" spans="2:4">
@@ -18365,10 +18533,10 @@
         <v>1066</v>
       </c>
       <c r="C101" t="s">
-        <v>2412</v>
+        <v>2436</v>
       </c>
       <c r="D101" t="s">
-        <v>2413</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="102" ht="15.15" spans="2:4">
@@ -18376,10 +18544,10 @@
         <v>1069</v>
       </c>
       <c r="C102" t="s">
-        <v>2414</v>
+        <v>2438</v>
       </c>
       <c r="D102" t="s">
-        <v>2415</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="103" ht="15.15" spans="2:4">
@@ -18387,10 +18555,10 @@
         <v>1072</v>
       </c>
       <c r="C103" t="s">
-        <v>2416</v>
+        <v>2440</v>
       </c>
       <c r="D103" t="s">
-        <v>2417</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="104" ht="15.15" spans="2:4">
@@ -18398,10 +18566,10 @@
         <v>1075</v>
       </c>
       <c r="C104" t="s">
-        <v>2418</v>
+        <v>2442</v>
       </c>
       <c r="D104" t="s">
-        <v>2419</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="105" ht="15.15" spans="2:4">
@@ -18412,7 +18580,7 @@
         <v>991</v>
       </c>
       <c r="D105" t="s">
-        <v>2420</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="106" ht="15.15" spans="2:4">
@@ -18420,10 +18588,10 @@
         <v>1081</v>
       </c>
       <c r="C106" t="s">
-        <v>2421</v>
+        <v>2445</v>
       </c>
       <c r="D106" t="s">
-        <v>2422</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="107" ht="15.15" spans="2:4">
@@ -18431,10 +18599,10 @@
         <v>1084</v>
       </c>
       <c r="C107" t="s">
-        <v>2423</v>
+        <v>2447</v>
       </c>
       <c r="D107" t="s">
-        <v>2424</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="108" ht="15.15" spans="2:4">
@@ -18442,10 +18610,10 @@
         <v>1087</v>
       </c>
       <c r="C108" t="s">
-        <v>2425</v>
+        <v>2449</v>
       </c>
       <c r="D108" t="s">
-        <v>2426</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="109" ht="15.15" spans="2:4">
@@ -18453,10 +18621,10 @@
         <v>1090</v>
       </c>
       <c r="C109" t="s">
-        <v>2427</v>
+        <v>2451</v>
       </c>
       <c r="D109" t="s">
-        <v>2428</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="110" ht="15.15" spans="2:4">
@@ -18464,10 +18632,10 @@
         <v>1093</v>
       </c>
       <c r="C110" t="s">
-        <v>2429</v>
+        <v>2453</v>
       </c>
       <c r="D110" t="s">
-        <v>2430</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="111" ht="15.15" spans="2:4">
@@ -18475,10 +18643,10 @@
         <v>1095</v>
       </c>
       <c r="C111" t="s">
-        <v>2431</v>
+        <v>2455</v>
       </c>
       <c r="D111" t="s">
-        <v>2432</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="112" ht="15.15" spans="2:4">
@@ -18486,10 +18654,10 @@
         <v>1098</v>
       </c>
       <c r="C112" t="s">
-        <v>2433</v>
+        <v>2457</v>
       </c>
       <c r="D112" t="s">
-        <v>2434</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="113" ht="15.15" spans="2:4">
@@ -18497,10 +18665,10 @@
         <v>1101</v>
       </c>
       <c r="C113" t="s">
-        <v>2435</v>
+        <v>2459</v>
       </c>
       <c r="D113" t="s">
-        <v>2436</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="114" ht="15.15" spans="2:4">
@@ -18508,74 +18676,74 @@
         <v>1104</v>
       </c>
       <c r="C114" t="s">
-        <v>2437</v>
+        <v>2461</v>
       </c>
       <c r="D114" t="s">
-        <v>2438</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="117" spans="3:4">
       <c r="C117" t="s">
-        <v>2384</v>
+        <v>2408</v>
       </c>
       <c r="D117" t="s">
-        <v>2385</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="118" spans="3:4">
       <c r="C118" t="s">
-        <v>2386</v>
+        <v>2410</v>
       </c>
       <c r="D118" t="s">
-        <v>2387</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="119" spans="3:4">
       <c r="C119" t="s">
-        <v>2388</v>
+        <v>2412</v>
       </c>
       <c r="D119" t="s">
-        <v>2389</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="120" spans="3:4">
       <c r="C120" t="s">
-        <v>2390</v>
+        <v>2414</v>
       </c>
       <c r="D120" t="s">
-        <v>2391</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="121" spans="3:4">
       <c r="C121" t="s">
-        <v>2439</v>
+        <v>2463</v>
       </c>
       <c r="D121" t="s">
-        <v>2440</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="122" spans="3:4">
       <c r="C122" t="s">
-        <v>2441</v>
+        <v>2465</v>
       </c>
       <c r="D122" t="s">
-        <v>2442</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="123" spans="3:4">
       <c r="C123" t="s">
-        <v>2392</v>
+        <v>2416</v>
       </c>
       <c r="D123" t="s">
-        <v>2393</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="124" spans="3:4">
       <c r="C124" t="s">
-        <v>2394</v>
+        <v>2418</v>
       </c>
       <c r="D124" t="s">
-        <v>2395</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="126" spans="3:4">
@@ -18583,31 +18751,31 @@
         <v>991</v>
       </c>
       <c r="D126" t="s">
-        <v>2443</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="127" spans="3:4">
       <c r="C127" t="s">
-        <v>2444</v>
+        <v>2468</v>
       </c>
       <c r="D127" t="s">
-        <v>2422</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="136" spans="3:4">
       <c r="C136" s="2" t="s">
-        <v>2445</v>
+        <v>2469</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>2446</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="137" spans="3:4">
       <c r="C137" s="2" t="s">
-        <v>2447</v>
+        <v>2471</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>2448</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="139" ht="15.15" spans="3:5">
@@ -18626,10 +18794,10 @@
         <v>1109</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>2449</v>
+        <v>2473</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>2450</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="141" ht="15.15" spans="3:5">
@@ -18637,10 +18805,10 @@
         <v>1112</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>2451</v>
+        <v>2475</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>2452</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="142" ht="15.15" spans="3:5">
@@ -18648,10 +18816,10 @@
         <v>1115</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>2453</v>
+        <v>2477</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>2454</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="143" ht="15.15" spans="3:5">
@@ -18659,10 +18827,10 @@
         <v>1118</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>2455</v>
+        <v>2479</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>2456</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="144" ht="15.15" spans="3:5">
@@ -18670,10 +18838,10 @@
         <v>1121</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>2457</v>
+        <v>2481</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2458</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="145" spans="2:5">
@@ -18684,24 +18852,24 @@
         <v>1056</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>2459</v>
+        <v>2483</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>2460</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="146" spans="2:5">
       <c r="B146" s="2" t="s">
-        <v>2461</v>
+        <v>2485</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>2462</v>
+        <v>2486</v>
       </c>
       <c r="D146" t="s">
-        <v>2463</v>
+        <v>2487</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>2464</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="147" spans="2:5">
@@ -18712,24 +18880,24 @@
         <v>1062</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>2465</v>
+        <v>2489</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>2466</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="2" t="s">
-        <v>2467</v>
+        <v>2491</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>2468</v>
+        <v>2492</v>
       </c>
       <c r="D148" t="s">
-        <v>2469</v>
+        <v>2493</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>2470</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="149" spans="2:5">
@@ -18740,52 +18908,52 @@
         <v>1068</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>2471</v>
+        <v>2495</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>2472</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="150" spans="2:5">
       <c r="B150" s="2" t="s">
-        <v>2473</v>
+        <v>2497</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>2474</v>
+        <v>2498</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>2475</v>
+        <v>2499</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>2476</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="151" spans="2:5">
       <c r="B151" s="2" t="s">
-        <v>2477</v>
+        <v>2501</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>2478</v>
+        <v>2502</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>2479</v>
+        <v>2503</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>2480</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="2" t="s">
-        <v>2481</v>
+        <v>2505</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>2482</v>
+        <v>2506</v>
       </c>
       <c r="D152" t="s">
-        <v>2483</v>
+        <v>2507</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>2484</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="153" ht="15.15" spans="3:5">
@@ -18793,10 +18961,10 @@
         <v>1148</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>2485</v>
+        <v>2509</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>2486</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="154" ht="15.15" spans="2:5">
@@ -18807,24 +18975,24 @@
         <v>1151</v>
       </c>
       <c r="D154" t="s">
-        <v>2487</v>
+        <v>2511</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>2488</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="155" ht="15.15" spans="2:5">
       <c r="B155" s="2" t="s">
-        <v>2461</v>
+        <v>2485</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>1154</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>2489</v>
+        <v>2513</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>2490</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="156" ht="15.15" spans="2:5">
@@ -18835,15 +19003,15 @@
         <v>1157</v>
       </c>
       <c r="D156" t="s">
-        <v>2491</v>
+        <v>2515</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>2492</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="157" ht="15.15" spans="2:5">
       <c r="B157" s="2" t="s">
-        <v>2467</v>
+        <v>2491</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>1160</v>
@@ -18863,15 +19031,15 @@
         <v>1163</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>2493</v>
+        <v>2517</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>2494</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="2" t="s">
-        <v>2473</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="160" spans="2:2">
@@ -18881,21 +19049,21 @@
     </row>
     <row r="161" spans="2:4">
       <c r="B161" s="2" t="s">
-        <v>2481</v>
+        <v>2505</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>2360</v>
+        <v>2384</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>2361</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="162" spans="3:4">
       <c r="C162" s="2" t="s">
-        <v>2495</v>
+        <v>2519</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>2496</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="164" spans="2:3">
@@ -18908,10 +19076,10 @@
     </row>
     <row r="165" spans="3:4">
       <c r="C165" s="2" t="s">
-        <v>2497</v>
+        <v>2521</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>2498</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="167" spans="2:3">
@@ -18924,18 +19092,18 @@
     </row>
     <row r="168" spans="2:3">
       <c r="B168" s="2" t="s">
-        <v>2499</v>
+        <v>2523</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>2500</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" s="2" t="s">
-        <v>2501</v>
+        <v>2525</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>2502</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="172" spans="2:3">
@@ -18967,10 +19135,10 @@
         <v>1178</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>2503</v>
+        <v>2527</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>2504</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="180" ht="15.15" spans="2:4">
@@ -18978,10 +19146,10 @@
         <v>1181</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>2505</v>
+        <v>2529</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>2506</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="185" ht="15.15" spans="2:4">
@@ -19000,10 +19168,10 @@
         <v>1458</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>2507</v>
+        <v>2531</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>2508</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="187" ht="15.15" spans="2:4">
@@ -19011,7 +19179,7 @@
         <v>1461</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>2509</v>
+        <v>2533</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>1463</v>
@@ -19022,7 +19190,7 @@
         <v>1464</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>2510</v>
+        <v>2534</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>1466</v>
@@ -19044,10 +19212,10 @@
         <v>1470</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>2511</v>
+        <v>2535</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>2512</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="191" ht="15.15" spans="2:4">
@@ -19066,7 +19234,7 @@
         <v>1476</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>2513</v>
+        <v>2537</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>1478</v>
@@ -19132,10 +19300,10 @@
         <v>1494</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>2514</v>
+        <v>2538</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>2515</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="199" ht="15.15" spans="2:4">
@@ -19143,10 +19311,10 @@
         <v>1497</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>2516</v>
+        <v>2540</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>2517</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="200" ht="15.15" spans="2:4">
@@ -19154,10 +19322,10 @@
         <v>1500</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>2518</v>
+        <v>2542</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>2519</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="201" ht="15.15" spans="2:4">
@@ -19176,10 +19344,10 @@
         <v>1506</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>2520</v>
+        <v>2544</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>2521</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="203" ht="15.15" spans="2:4">
@@ -19187,10 +19355,10 @@
         <v>1509</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>2522</v>
+        <v>2546</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>2523</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="204" ht="15.15" spans="2:4">
@@ -19198,10 +19366,10 @@
         <v>1512</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>2524</v>
+        <v>2548</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>2525</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="205" ht="15.15" spans="2:4">
@@ -19231,10 +19399,10 @@
         <v>1521</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>2526</v>
+        <v>2550</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>2527</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="208" ht="15.15" spans="2:4">
@@ -19242,10 +19410,10 @@
         <v>1522</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>2528</v>
+        <v>2552</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>2529</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="209" ht="15.15" spans="2:4">
@@ -19267,7 +19435,7 @@
         <v>1533</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>2530</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="211" ht="15.15" spans="2:4">
@@ -19275,10 +19443,10 @@
         <v>1531</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>2531</v>
+        <v>2555</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>2532</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="212" ht="15.15" spans="2:4">
@@ -19286,10 +19454,10 @@
         <v>1532</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>2533</v>
+        <v>2557</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>2534</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="213" ht="15.15" spans="2:4">
@@ -19319,10 +19487,10 @@
         <v>1541</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>2535</v>
+        <v>2559</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>2536</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="216" ht="15.15" spans="2:4">
@@ -19418,10 +19586,10 @@
         <v>1568</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>2537</v>
+        <v>2561</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>2538</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="225" ht="15.15" spans="2:4">
@@ -19440,7 +19608,7 @@
         <v>1574</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>2539</v>
+        <v>2563</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>1576</v>
@@ -19451,7 +19619,7 @@
         <v>1577</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>2540</v>
+        <v>2564</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>1579</v>
@@ -19506,10 +19674,10 @@
         <v>1591</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>2541</v>
+        <v>2565</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>2542</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="233" ht="15.15" spans="2:4">
@@ -19528,10 +19696,10 @@
         <v>1597</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>2543</v>
+        <v>2567</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>2544</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="235" ht="15.15" spans="2:4">
@@ -19539,7 +19707,7 @@
         <v>1600</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>2545</v>
+        <v>2569</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>1602</v>
@@ -19575,7 +19743,7 @@
   <sheetData>
     <row r="18" spans="5:6">
       <c r="E18" s="1" t="s">
-        <v>2546</v>
+        <v>2570</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1144</v>
@@ -19583,10 +19751,10 @@
     </row>
     <row r="19" spans="5:6">
       <c r="E19" s="2" t="s">
-        <v>2547</v>
+        <v>2571</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>2548</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="24" spans="5:6">
@@ -19599,10 +19767,10 @@
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="2" t="s">
-        <v>2549</v>
+        <v>2573</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>2550</v>
+        <v>2574</v>
       </c>
     </row>
   </sheetData>

--- a/Refactor_Mobile/Assets/Excels/LanguageExcel.xlsx
+++ b/Refactor_Mobile/Assets/Excels/LanguageExcel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="2575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="2583">
   <si>
     <t>KEY</t>
   </si>
@@ -5753,6 +5753,30 @@
   </si>
   <si>
     <t>累计完成100次重构</t>
+  </si>
+  <si>
+    <t>ACH_REFACTOR4</t>
+  </si>
+  <si>
+    <t>传奇指挥</t>
+  </si>
+  <si>
+    <t>ACH_REFACTOR4INFO</t>
+  </si>
+  <si>
+    <t>累计完成500次重构</t>
+  </si>
+  <si>
+    <t>ACH_FAST</t>
+  </si>
+  <si>
+    <t>速通玩家</t>
+  </si>
+  <si>
+    <t>ACH_FASTINFO</t>
+  </si>
+  <si>
+    <t>10分钟内通关标准模式难度9</t>
   </si>
   <si>
     <t>ACH_CAKE</t>
@@ -8972,10 +8996,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E784"/>
+  <dimension ref="A1:E788"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="B650" sqref="B650"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A640" workbookViewId="0">
+      <selection activeCell="B647" sqref="B647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="42" customHeight="1" outlineLevelCol="4"/>
@@ -16110,635 +16134,635 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="651" customHeight="1" spans="1:3">
-      <c r="A651" s="5" t="s">
+    <row r="651" customHeight="1" spans="1:2">
+      <c r="A651" s="19" t="s">
         <v>1894</v>
       </c>
       <c r="B651" s="2" t="s">
         <v>1895</v>
       </c>
-      <c r="C651" s="2" t="s">
+    </row>
+    <row r="652" customHeight="1" spans="1:2">
+      <c r="A652" s="19" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="652" customHeight="1" spans="1:3">
-      <c r="A652" s="5" t="s">
+      <c r="B652" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="B652" s="2" t="s">
+    </row>
+    <row r="653" customHeight="1" spans="1:2">
+      <c r="A653" s="19" t="s">
         <v>1898</v>
       </c>
-      <c r="C652" s="2" t="s">
+      <c r="B653" s="2" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="653" customHeight="1" spans="1:3">
-      <c r="A653" s="5" t="s">
+    <row r="654" customHeight="1" spans="1:2">
+      <c r="A654" s="19" t="s">
         <v>1900</v>
       </c>
-      <c r="B653" s="2" t="s">
+      <c r="B654" s="2" t="s">
         <v>1901</v>
-      </c>
-      <c r="C653" s="2" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="654" customHeight="1" spans="1:3">
-      <c r="A654" s="5" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B654" s="2" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C654" s="2" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="655" customHeight="1" spans="1:3">
       <c r="A655" s="5" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="656" customHeight="1" spans="1:3">
       <c r="A656" s="5" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="657" customHeight="1" spans="1:3">
       <c r="A657" s="5" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="658" customHeight="1" spans="1:3">
       <c r="A658" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="659" customHeight="1" spans="1:3">
       <c r="A659" s="5" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="660" customHeight="1" spans="1:3">
       <c r="A660" s="5" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="661" customHeight="1" spans="1:3">
       <c r="A661" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="662" customHeight="1" spans="1:3">
+      <c r="A662" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B662" s="2" t="s">
         <v>1924</v>
       </c>
-      <c r="B661" s="2" t="s">
+      <c r="C662" s="2" t="s">
         <v>1925</v>
       </c>
-      <c r="C661" s="20" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="662" customHeight="1" spans="1:4">
-      <c r="A662" s="5" t="s">
-        <v>1927</v>
-      </c>
-      <c r="B662" s="2" t="s">
-        <v>1928</v>
-      </c>
-      <c r="C662" s="2" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D662" s="20"/>
     </row>
     <row r="663" customHeight="1" spans="1:3">
       <c r="A663" s="5" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="664" customHeight="1" spans="1:3">
       <c r="A664" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="665" customHeight="1" spans="1:3">
+      <c r="A665" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B665" s="2" t="s">
         <v>1933</v>
       </c>
-      <c r="B664" s="2" t="s">
+      <c r="C665" s="20" t="s">
         <v>1934</v>
       </c>
-      <c r="C664" s="21" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="665" customHeight="1" spans="1:4">
-      <c r="A665" s="5" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B665" s="2" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C665" s="21" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D665" s="21"/>
     </row>
     <row r="666" customHeight="1" spans="1:4">
       <c r="A666" s="5" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D666" s="21"/>
+        <v>1937</v>
+      </c>
+      <c r="D666" s="20"/>
     </row>
     <row r="667" customHeight="1" spans="1:3">
       <c r="A667" s="5" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="668" customHeight="1" spans="1:3">
       <c r="A668" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C668" s="21" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="669" customHeight="1" spans="1:4">
+      <c r="A669" s="5" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B669" s="2" t="s">
         <v>1945</v>
       </c>
-      <c r="B668" s="2" t="s">
+      <c r="C669" s="21" t="s">
         <v>1946</v>
       </c>
-      <c r="C668" s="2" t="s">
+      <c r="D669" s="21"/>
+    </row>
+    <row r="670" customHeight="1" spans="1:4">
+      <c r="A670" s="5" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="669" customHeight="1" spans="1:3">
-      <c r="A669" s="5" t="s">
+      <c r="B670" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="B669" s="2" t="s">
+      <c r="C670" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="C669" s="2" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="670" customHeight="1" spans="1:3">
-      <c r="A670" s="5" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B670" s="2" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C670" s="2" t="s">
-        <v>1953</v>
-      </c>
+      <c r="D670" s="21"/>
     </row>
     <row r="671" customHeight="1" spans="1:3">
       <c r="A671" s="5" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="672" customHeight="1" spans="1:3">
       <c r="A672" s="5" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="673" customHeight="1" spans="1:3">
       <c r="A673" s="5" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="674" customHeight="1" spans="1:3">
       <c r="A674" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="675" customHeight="1" spans="1:3">
+      <c r="A675" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B675" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="B674" s="2" t="s">
+      <c r="C675" s="2" t="s">
         <v>1964</v>
       </c>
-      <c r="C674" s="20" t="s">
+    </row>
+    <row r="676" customHeight="1" spans="1:3">
+      <c r="A676" s="5" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="675" customHeight="1" spans="1:4">
-      <c r="A675" s="5" t="s">
+      <c r="B676" s="2" t="s">
         <v>1966</v>
       </c>
-      <c r="B675" s="2" t="s">
+      <c r="C676" s="2" t="s">
         <v>1967</v>
       </c>
-      <c r="C675" s="20" t="s">
+    </row>
+    <row r="677" customHeight="1" spans="1:3">
+      <c r="A677" s="5" t="s">
         <v>1968</v>
       </c>
-      <c r="D675" s="20"/>
-    </row>
-    <row r="676" customHeight="1" spans="1:4">
-      <c r="A676" s="5" t="s">
+      <c r="B677" s="2" t="s">
         <v>1969</v>
       </c>
-      <c r="B676" s="2" t="s">
+      <c r="C677" s="2" t="s">
         <v>1970</v>
       </c>
-      <c r="C676" s="20" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D676" s="20"/>
-    </row>
-    <row r="677" customHeight="1" spans="1:4">
-      <c r="A677" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B677" s="2" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C677" s="2" t="s">
-        <v>1974</v>
-      </c>
-      <c r="D677" s="20"/>
     </row>
     <row r="678" customHeight="1" spans="1:3">
       <c r="A678" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C678" s="20" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="679" customHeight="1" spans="1:4">
+      <c r="A679" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B679" s="2" t="s">
         <v>1975</v>
       </c>
-      <c r="B678" s="2" t="s">
+      <c r="C679" s="20" t="s">
         <v>1976</v>
       </c>
-      <c r="C678" s="2" t="s">
+      <c r="D679" s="20"/>
+    </row>
+    <row r="680" customHeight="1" spans="1:4">
+      <c r="A680" s="5" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="679" customHeight="1" spans="1:3">
-      <c r="A679" s="5" t="s">
+      <c r="B680" s="2" t="s">
         <v>1978</v>
       </c>
-      <c r="B679" s="2" t="s">
+      <c r="C680" s="20" t="s">
         <v>1979</v>
       </c>
-      <c r="C679" s="2" t="s">
+      <c r="D680" s="20"/>
+    </row>
+    <row r="681" customHeight="1" spans="1:4">
+      <c r="A681" s="5" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="680" customHeight="1" spans="1:3">
-      <c r="A680" s="5" t="s">
+      <c r="B681" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="B680" s="2" t="s">
+      <c r="C681" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="C680" s="2" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="681" customHeight="1" spans="1:3">
-      <c r="A681" s="5" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B681" s="2" t="s">
-        <v>1985</v>
-      </c>
-      <c r="C681" s="2" t="s">
-        <v>1986</v>
-      </c>
+      <c r="D681" s="20"/>
     </row>
     <row r="682" customHeight="1" spans="1:3">
       <c r="A682" s="5" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="683" customHeight="1" spans="1:3">
       <c r="A683" s="5" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="684" customHeight="1" spans="1:3">
       <c r="A684" s="5" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="685" customHeight="1" spans="1:3">
       <c r="A685" s="5" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="686" customHeight="1" spans="1:3">
       <c r="A686" s="5" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="687" customHeight="1" spans="1:3">
       <c r="A687" s="5" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="688" customHeight="1" spans="1:3">
       <c r="A688" s="5" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="689" customHeight="1" spans="1:3">
+      <c r="A689" s="5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B689" s="2" t="s">
         <v>2005</v>
       </c>
-      <c r="B688" s="2" t="s">
+      <c r="C689" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="C688" s="2" t="s">
+    </row>
+    <row r="690" customHeight="1" spans="1:3">
+      <c r="A690" s="5" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="689" customHeight="1" spans="1:5">
-      <c r="A689" s="5" t="s">
+      <c r="B690" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="B689" s="2" t="s">
+      <c r="C690" s="2" t="s">
         <v>2009</v>
-      </c>
-      <c r="C689" s="2" t="s">
-        <v>2010</v>
-      </c>
-      <c r="E689" s="2" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="690" customHeight="1" spans="1:2">
-      <c r="A690" s="5" t="s">
-        <v>2012</v>
-      </c>
-      <c r="B690" s="2" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="691" customHeight="1" spans="1:3">
       <c r="A691" s="5" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="692" customHeight="1" spans="1:3">
       <c r="A692" s="5" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="693" customHeight="1" spans="1:5">
+      <c r="A693" s="5" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B693" s="2" t="s">
         <v>2017</v>
       </c>
-      <c r="B692" s="2" t="s">
+      <c r="C693" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="C692" s="2" t="s">
+      <c r="E693" s="2" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="693" customHeight="1" spans="1:3">
-      <c r="A693" s="5" t="s">
+    <row r="694" customHeight="1" spans="1:2">
+      <c r="A694" s="5" t="s">
         <v>2020</v>
       </c>
-      <c r="B693" s="2" t="s">
+      <c r="B694" s="2" t="s">
         <v>2021</v>
-      </c>
-      <c r="C693" s="2" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="694" customHeight="1" spans="1:3">
-      <c r="A694" s="5" t="s">
-        <v>2023</v>
-      </c>
-      <c r="B694" s="2" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C694" s="2" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="695" customHeight="1" spans="1:3">
       <c r="A695" s="5" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="696" customHeight="1" spans="1:3">
       <c r="A696" s="5" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="697" customHeight="1" spans="1:3">
       <c r="A697" s="5" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="698" customHeight="1" spans="1:3">
       <c r="A698" s="5" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="699" customHeight="1" spans="1:3">
       <c r="A699" s="5" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="700" customHeight="1" spans="1:3">
       <c r="A700" s="5" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="701" customHeight="1" spans="1:3">
       <c r="A701" s="5" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="702" customHeight="1" spans="1:3">
       <c r="A702" s="5" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="703" customHeight="1" spans="1:3">
       <c r="A703" s="5" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="C703" s="2" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="704" customHeight="1" spans="1:3">
       <c r="A704" s="5" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="705" customHeight="1" spans="1:3">
+      <c r="A705" s="5" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B705" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="B704" s="2" t="s">
+      <c r="C705" s="2" t="s">
         <v>2054</v>
       </c>
-      <c r="C704" s="2" t="s">
+    </row>
+    <row r="706" customHeight="1" spans="1:3">
+      <c r="A706" s="5" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="705" customHeight="1" spans="1:2">
-      <c r="A705" s="5" t="s">
+      <c r="B706" s="2" t="s">
         <v>2056</v>
       </c>
-      <c r="B705" s="22" t="s">
+      <c r="C706" s="2" t="s">
         <v>2057</v>
       </c>
     </row>
-    <row r="706" customHeight="1" spans="1:2">
-      <c r="A706" s="5" t="s">
+    <row r="707" customHeight="1" spans="1:3">
+      <c r="A707" s="5" t="s">
         <v>2058</v>
       </c>
-      <c r="B706" s="22" t="s">
+      <c r="B707" s="2" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="707" customHeight="1" spans="1:2">
-      <c r="A707" s="5" t="s">
+      <c r="C707" s="2" t="s">
         <v>2060</v>
       </c>
-      <c r="B707" s="22" t="s">
+    </row>
+    <row r="708" customHeight="1" spans="1:3">
+      <c r="A708" s="5" t="s">
         <v>2061</v>
       </c>
-    </row>
-    <row r="708" customHeight="1" spans="1:2">
-      <c r="A708" s="5" t="s">
+      <c r="B708" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="B708" s="22" t="s">
+      <c r="C708" s="2" t="s">
         <v>2063</v>
       </c>
     </row>
@@ -16898,607 +16922,639 @@
       <c r="A728" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="B728" s="22"/>
-    </row>
-    <row r="729" customHeight="1" spans="1:3">
+      <c r="B728" s="22" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="729" customHeight="1" spans="1:2">
       <c r="A729" s="5" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B729" s="2" t="s">
         <v>2104</v>
       </c>
-      <c r="C729" s="2" t="s">
+      <c r="B729" s="22" t="s">
         <v>2105</v>
       </c>
     </row>
-    <row r="730" customHeight="1" spans="1:3">
+    <row r="730" customHeight="1" spans="1:2">
       <c r="A730" s="5" t="s">
         <v>2106</v>
       </c>
-      <c r="B730" s="2" t="s">
+      <c r="B730" s="22" t="s">
         <v>2107</v>
       </c>
-      <c r="C730" s="2" t="s">
+    </row>
+    <row r="731" customHeight="1" spans="1:2">
+      <c r="A731" s="5" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="731" customHeight="1" spans="1:3">
-      <c r="A731" s="5" t="s">
+      <c r="B731" s="22" t="s">
         <v>2109</v>
       </c>
-      <c r="B731" s="2" t="s">
+    </row>
+    <row r="732" customHeight="1" spans="1:2">
+      <c r="A732" s="5" t="s">
         <v>2110</v>
       </c>
-      <c r="C731" s="2" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="732" customHeight="1" spans="1:3">
-      <c r="A732" s="5" t="s">
-        <v>2112</v>
-      </c>
-      <c r="B732" s="2" t="s">
-        <v>2113</v>
-      </c>
-      <c r="C732" s="2" t="s">
-        <v>2114</v>
-      </c>
+      <c r="B732" s="22"/>
     </row>
     <row r="733" customHeight="1" spans="1:3">
       <c r="A733" s="5" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="734" customHeight="1" spans="1:3">
       <c r="A734" s="5" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="735" customHeight="1" spans="1:3">
       <c r="A735" s="5" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="736" customHeight="1" spans="1:3">
+      <c r="A736" s="5" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B736" s="2" t="s">
         <v>2121</v>
       </c>
-      <c r="B735" s="2" t="s">
+      <c r="C736" s="2" t="s">
         <v>2122</v>
-      </c>
-      <c r="C735" s="2" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="736" customHeight="1" spans="1:1">
-      <c r="A736" s="5" t="s">
-        <v>2124</v>
       </c>
     </row>
     <row r="737" customHeight="1" spans="1:3">
       <c r="A737" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C737" s="2" t="s">
         <v>2125</v>
-      </c>
-      <c r="B737" s="2" t="s">
-        <v>2126</v>
-      </c>
-      <c r="C737" s="2" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="738" customHeight="1" spans="1:3">
       <c r="A738" s="5" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C738" s="2" t="s">
         <v>2128</v>
-      </c>
-      <c r="B738" s="2" t="s">
-        <v>2129</v>
-      </c>
-      <c r="C738" s="2" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="739" customHeight="1" spans="1:3">
       <c r="A739" s="5" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C739" s="2" t="s">
         <v>2131</v>
       </c>
-      <c r="B739" s="2" t="s">
+    </row>
+    <row r="740" customHeight="1" spans="1:1">
+      <c r="A740" s="5" t="s">
         <v>2132</v>
-      </c>
-      <c r="C739" s="2" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="740" customHeight="1" spans="1:3">
-      <c r="A740" s="5" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B740" s="2" t="s">
-        <v>2135</v>
-      </c>
-      <c r="C740" s="2" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="741" customHeight="1" spans="1:3">
       <c r="A741" s="5" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="742" customHeight="1" spans="1:3">
       <c r="A742" s="5" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="743" customHeight="1" spans="1:3">
       <c r="A743" s="5" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="744" customHeight="1" spans="1:3">
       <c r="A744" s="5" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="745" customHeight="1" spans="1:3">
       <c r="A745" s="5" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="746" customHeight="1" spans="1:3">
       <c r="A746" s="5" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="747" customHeight="1" spans="1:3">
       <c r="A747" s="5" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="748" customHeight="1" spans="1:3">
       <c r="A748" s="5" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="749" customHeight="1" spans="1:3">
       <c r="A749" s="5" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="750" customHeight="1" spans="1:3">
       <c r="A750" s="5" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="751" customHeight="1" spans="1:3">
       <c r="A751" s="5" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="C751" s="2" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="752" customHeight="1" spans="1:3">
       <c r="A752" s="5" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="753" customHeight="1" spans="1:3">
       <c r="A753" s="5" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="C753" s="2" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="754" customHeight="1" spans="1:3">
       <c r="A754" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="755" customHeight="1" spans="1:3">
+      <c r="A755" s="5" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B755" s="2" t="s">
         <v>2176</v>
       </c>
-      <c r="B754" s="2" t="s">
+      <c r="C755" s="2" t="s">
         <v>2177</v>
-      </c>
-      <c r="C754" s="2" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="755" customHeight="1" spans="1:1">
-      <c r="A755" s="5" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="756" customHeight="1" spans="1:3">
       <c r="A756" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C756" s="2" t="s">
         <v>2180</v>
-      </c>
-      <c r="B756" s="2" t="s">
-        <v>2181</v>
-      </c>
-      <c r="C756" s="2" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="757" customHeight="1" spans="1:3">
       <c r="A757" s="5" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C757" s="2" t="s">
         <v>2183</v>
       </c>
-      <c r="B757" s="2" t="s">
+    </row>
+    <row r="758" customHeight="1" spans="1:3">
+      <c r="A758" s="5" t="s">
         <v>2184</v>
       </c>
-      <c r="C757" s="2" t="s">
+      <c r="B758" s="2" t="s">
         <v>2185</v>
       </c>
-    </row>
-    <row r="758" customHeight="1" spans="1:1">
-      <c r="A758" s="23" t="s">
+      <c r="C758" s="2" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="759" customHeight="1" spans="1:3">
-      <c r="A759" s="23" t="s">
+    <row r="759" customHeight="1" spans="1:1">
+      <c r="A759" s="5" t="s">
         <v>2187</v>
       </c>
-      <c r="B759" s="2" t="s">
+    </row>
+    <row r="760" customHeight="1" spans="1:3">
+      <c r="A760" s="5" t="s">
         <v>2188</v>
       </c>
-      <c r="C759" s="2" t="s">
+      <c r="B760" s="2" t="s">
         <v>2189</v>
       </c>
-    </row>
-    <row r="760" customHeight="1" spans="1:4">
-      <c r="A760" s="23" t="s">
+      <c r="C760" s="2" t="s">
         <v>2190</v>
       </c>
-      <c r="B760" s="2" t="s">
+    </row>
+    <row r="761" customHeight="1" spans="1:3">
+      <c r="A761" s="5" t="s">
         <v>2191</v>
       </c>
-      <c r="C760" s="2" t="s">
+      <c r="B761" s="2" t="s">
         <v>2192</v>
       </c>
-      <c r="D760" s="2" t="s">
+      <c r="C761" s="2" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="761" customHeight="1" spans="1:3">
-      <c r="A761" s="23" t="s">
+    <row r="762" customHeight="1" spans="1:1">
+      <c r="A762" s="23" t="s">
         <v>2194</v>
-      </c>
-      <c r="B761" s="2" t="s">
-        <v>2195</v>
-      </c>
-      <c r="C761" s="2" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="762" customHeight="1" spans="1:3">
-      <c r="A762" s="23" t="s">
-        <v>2197</v>
-      </c>
-      <c r="B762" s="2" t="s">
-        <v>2198</v>
-      </c>
-      <c r="C762" s="2" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="763" customHeight="1" spans="1:3">
       <c r="A763" s="23" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="764" customHeight="1" spans="1:4">
+      <c r="A764" s="23" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C764" s="2" t="s">
         <v>2200</v>
       </c>
-      <c r="B763" s="2" t="s">
+      <c r="D764" s="2" t="s">
         <v>2201</v>
-      </c>
-      <c r="C763" s="2" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="764" customHeight="1" spans="1:3">
-      <c r="A764" s="23" t="s">
-        <v>2203</v>
-      </c>
-      <c r="B764" s="2" t="s">
-        <v>2204</v>
-      </c>
-      <c r="C764" s="2" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="765" customHeight="1" spans="1:3">
       <c r="A765" s="23" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="766" customHeight="1" spans="1:3">
+      <c r="A766" s="23" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B766" s="2" t="s">
         <v>2206</v>
       </c>
-      <c r="B765" s="2" t="s">
+      <c r="C766" s="2" t="s">
         <v>2207</v>
       </c>
-      <c r="C765" s="2" t="s">
+    </row>
+    <row r="767" customHeight="1" spans="1:3">
+      <c r="A767" s="23" t="s">
         <v>2208</v>
       </c>
-    </row>
-    <row r="766" customHeight="1" spans="1:4">
-      <c r="A766" s="23" t="s">
+      <c r="B767" s="2" t="s">
         <v>2209</v>
       </c>
-      <c r="B766" s="2" t="s">
+      <c r="C767" s="2" t="s">
         <v>2210</v>
-      </c>
-      <c r="C766" s="2" t="s">
-        <v>2211</v>
-      </c>
-      <c r="D766" s="2" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="767" customHeight="1" spans="1:4">
-      <c r="A767" s="23" t="s">
-        <v>2213</v>
-      </c>
-      <c r="D767" s="2" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="768" customHeight="1" spans="1:3">
       <c r="A768" s="23" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="769" customHeight="1" spans="1:3">
       <c r="A769" s="23" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="770" customHeight="1" spans="1:4">
+      <c r="A770" s="23" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B770" s="2" t="s">
         <v>2218</v>
       </c>
-      <c r="B769" s="2" t="s">
+      <c r="C770" s="2" t="s">
         <v>2219</v>
       </c>
-      <c r="C769" s="2" t="s">
+      <c r="D770" s="2" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="770" customHeight="1" spans="1:3">
-      <c r="A770" s="23" t="s">
+    <row r="771" customHeight="1" spans="1:4">
+      <c r="A771" s="23" t="s">
         <v>2221</v>
       </c>
-      <c r="B770" s="2" t="s">
+      <c r="D771" s="2" t="s">
         <v>2222</v>
-      </c>
-      <c r="C770" s="2" t="s">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="771" customHeight="1" spans="1:3">
-      <c r="A771" s="23" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B771" s="2" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C771" s="2" t="s">
-        <v>2226</v>
       </c>
     </row>
     <row r="772" customHeight="1" spans="1:3">
       <c r="A772" s="23" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="773" customHeight="1" spans="1:3">
       <c r="A773" s="23" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="774" customHeight="1" spans="1:3">
       <c r="A774" s="23" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="C774" s="2" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="775" customHeight="1" spans="1:3">
       <c r="A775" s="23" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="C775" s="2" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="776" customHeight="1" spans="1:3">
       <c r="A776" s="23" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="777" customHeight="1" spans="1:3">
       <c r="A777" s="23" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="778" customHeight="1" spans="1:3">
       <c r="A778" s="23" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="779" customHeight="1" spans="1:3">
       <c r="A779" s="23" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="780" customHeight="1" spans="1:3">
       <c r="A780" s="23" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="781" customHeight="1" spans="1:3">
       <c r="A781" s="23" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="782" customHeight="1" spans="1:3">
       <c r="A782" s="23" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="783" customHeight="1" spans="1:3">
       <c r="A783" s="23" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="C783" s="2" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="784" customHeight="1" spans="1:3">
       <c r="A784" s="23" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="785" customHeight="1" spans="1:3">
+      <c r="A785" s="23" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B785" s="2" t="s">
         <v>2263</v>
       </c>
-      <c r="B784" s="2" t="s">
+      <c r="C785" s="2" t="s">
         <v>2264</v>
       </c>
-      <c r="C784" s="2" t="s">
+    </row>
+    <row r="786" customHeight="1" spans="1:3">
+      <c r="A786" s="23" t="s">
         <v>2265</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="787" customHeight="1" spans="1:3">
+      <c r="A787" s="23" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="788" customHeight="1" spans="1:3">
+      <c r="A788" s="23" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>2273</v>
       </c>
     </row>
   </sheetData>
@@ -17529,10 +17585,10 @@
         <v>966</v>
       </c>
       <c r="B1" t="s">
-        <v>2266</v>
+        <v>2274</v>
       </c>
       <c r="C1" t="s">
-        <v>2267</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:3">
@@ -17540,10 +17596,10 @@
         <v>969</v>
       </c>
       <c r="B2" t="s">
-        <v>2268</v>
+        <v>2276</v>
       </c>
       <c r="C2" t="s">
-        <v>2269</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:3">
@@ -17551,10 +17607,10 @@
         <v>972</v>
       </c>
       <c r="B3" t="s">
-        <v>2270</v>
+        <v>2278</v>
       </c>
       <c r="C3" t="s">
-        <v>2271</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:3">
@@ -17562,10 +17618,10 @@
         <v>975</v>
       </c>
       <c r="B4" t="s">
-        <v>2272</v>
+        <v>2280</v>
       </c>
       <c r="C4" t="s">
-        <v>2273</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:3">
@@ -17573,10 +17629,10 @@
         <v>978</v>
       </c>
       <c r="B5" t="s">
-        <v>2274</v>
+        <v>2282</v>
       </c>
       <c r="C5" t="s">
-        <v>2275</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:3">
@@ -17584,10 +17640,10 @@
         <v>981</v>
       </c>
       <c r="B6" t="s">
-        <v>2276</v>
+        <v>2284</v>
       </c>
       <c r="C6" t="s">
-        <v>2277</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:3">
@@ -17595,10 +17651,10 @@
         <v>984</v>
       </c>
       <c r="B7" t="s">
-        <v>2278</v>
+        <v>2286</v>
       </c>
       <c r="C7" t="s">
-        <v>2279</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:3">
@@ -17606,10 +17662,10 @@
         <v>987</v>
       </c>
       <c r="B8" t="s">
-        <v>2280</v>
+        <v>2288</v>
       </c>
       <c r="C8" t="s">
-        <v>2281</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:3">
@@ -17617,10 +17673,10 @@
         <v>990</v>
       </c>
       <c r="B9" t="s">
-        <v>2282</v>
+        <v>2290</v>
       </c>
       <c r="C9" t="s">
-        <v>2283</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:3">
@@ -17628,10 +17684,10 @@
         <v>993</v>
       </c>
       <c r="B10" t="s">
-        <v>2284</v>
+        <v>2292</v>
       </c>
       <c r="C10" t="s">
-        <v>2285</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:3">
@@ -17639,10 +17695,10 @@
         <v>996</v>
       </c>
       <c r="B11" t="s">
-        <v>2286</v>
+        <v>2294</v>
       </c>
       <c r="C11" t="s">
-        <v>2287</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:3">
@@ -17650,10 +17706,10 @@
         <v>999</v>
       </c>
       <c r="B12" t="s">
-        <v>2288</v>
+        <v>2296</v>
       </c>
       <c r="C12" t="s">
-        <v>2289</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:3">
@@ -17661,10 +17717,10 @@
         <v>1002</v>
       </c>
       <c r="B13" t="s">
-        <v>2290</v>
+        <v>2298</v>
       </c>
       <c r="C13" t="s">
-        <v>2291</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:3">
@@ -17672,10 +17728,10 @@
         <v>1005</v>
       </c>
       <c r="B14" t="s">
-        <v>2292</v>
+        <v>2300</v>
       </c>
       <c r="C14" t="s">
-        <v>2293</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:3">
@@ -17683,10 +17739,10 @@
         <v>1008</v>
       </c>
       <c r="B15" t="s">
-        <v>2294</v>
+        <v>2302</v>
       </c>
       <c r="C15" t="s">
-        <v>2295</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:3">
@@ -17694,10 +17750,10 @@
         <v>1011</v>
       </c>
       <c r="B16" t="s">
-        <v>2296</v>
+        <v>2304</v>
       </c>
       <c r="C16" t="s">
-        <v>2297</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:3">
@@ -17705,10 +17761,10 @@
         <v>1014</v>
       </c>
       <c r="B17" t="s">
-        <v>2298</v>
+        <v>2306</v>
       </c>
       <c r="C17" t="s">
-        <v>2299</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="18" ht="15.15" spans="1:3">
@@ -17716,10 +17772,10 @@
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>2300</v>
+        <v>2308</v>
       </c>
       <c r="C18" t="s">
-        <v>2301</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="19" ht="15.15" spans="1:3">
@@ -17727,10 +17783,10 @@
         <v>1020</v>
       </c>
       <c r="B19" t="s">
-        <v>2302</v>
+        <v>2310</v>
       </c>
       <c r="C19" t="s">
-        <v>2303</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:3">
@@ -17738,10 +17794,10 @@
         <v>1023</v>
       </c>
       <c r="B20" t="s">
-        <v>2304</v>
+        <v>2312</v>
       </c>
       <c r="C20" t="s">
-        <v>2305</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="21" ht="15.15" spans="1:3">
@@ -17749,10 +17805,10 @@
         <v>1026</v>
       </c>
       <c r="B21" t="s">
-        <v>2306</v>
+        <v>2314</v>
       </c>
       <c r="C21" t="s">
-        <v>2307</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="22" ht="15.15" spans="1:3">
@@ -17760,10 +17816,10 @@
         <v>1029</v>
       </c>
       <c r="B22" t="s">
-        <v>2308</v>
+        <v>2316</v>
       </c>
       <c r="C22" t="s">
-        <v>2309</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="23" ht="15.15" spans="1:3">
@@ -17771,10 +17827,10 @@
         <v>1032</v>
       </c>
       <c r="B23" t="s">
-        <v>2310</v>
+        <v>2318</v>
       </c>
       <c r="C23" t="s">
-        <v>2311</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="24" ht="15.15" spans="1:3">
@@ -17782,10 +17838,10 @@
         <v>1035</v>
       </c>
       <c r="B24" t="s">
-        <v>2312</v>
+        <v>2320</v>
       </c>
       <c r="C24" t="s">
-        <v>2313</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="25" ht="15.15" spans="1:3">
@@ -17793,10 +17849,10 @@
         <v>1038</v>
       </c>
       <c r="B25" t="s">
-        <v>2314</v>
+        <v>2322</v>
       </c>
       <c r="C25" t="s">
-        <v>2315</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="26" ht="15.15" spans="1:3">
@@ -17804,10 +17860,10 @@
         <v>1041</v>
       </c>
       <c r="B26" t="s">
-        <v>2316</v>
+        <v>2324</v>
       </c>
       <c r="C26" t="s">
-        <v>2317</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="27" ht="15.15" spans="1:3">
@@ -17815,10 +17871,10 @@
         <v>1044</v>
       </c>
       <c r="B27" t="s">
-        <v>2318</v>
+        <v>2326</v>
       </c>
       <c r="C27" t="s">
-        <v>2319</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="28" ht="15.15" spans="1:3">
@@ -17826,10 +17882,10 @@
         <v>1047</v>
       </c>
       <c r="B28" t="s">
-        <v>2320</v>
+        <v>2328</v>
       </c>
       <c r="C28" t="s">
-        <v>2321</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="29" ht="15.15" spans="1:3">
@@ -17837,10 +17893,10 @@
         <v>1050</v>
       </c>
       <c r="B29" t="s">
-        <v>2322</v>
+        <v>2330</v>
       </c>
       <c r="C29" t="s">
-        <v>2323</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="30" ht="15.15" spans="1:3">
@@ -17848,10 +17904,10 @@
         <v>1051</v>
       </c>
       <c r="B30" t="s">
-        <v>2324</v>
+        <v>2332</v>
       </c>
       <c r="C30" t="s">
-        <v>2325</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="31" ht="15.15" spans="1:3">
@@ -17859,10 +17915,10 @@
         <v>1054</v>
       </c>
       <c r="B31" t="s">
-        <v>2326</v>
+        <v>2334</v>
       </c>
       <c r="C31" t="s">
-        <v>2327</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="32" ht="15.15" spans="1:3">
@@ -17870,10 +17926,10 @@
         <v>1057</v>
       </c>
       <c r="B32" t="s">
-        <v>2328</v>
+        <v>2336</v>
       </c>
       <c r="C32" t="s">
-        <v>2329</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="33" ht="15.15" spans="1:3">
@@ -17881,10 +17937,10 @@
         <v>1060</v>
       </c>
       <c r="B33" t="s">
-        <v>2330</v>
+        <v>2338</v>
       </c>
       <c r="C33" t="s">
-        <v>2331</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="34" ht="15.15" spans="1:3">
@@ -17892,10 +17948,10 @@
         <v>1063</v>
       </c>
       <c r="B34" t="s">
-        <v>2332</v>
+        <v>2340</v>
       </c>
       <c r="C34" t="s">
-        <v>2333</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="35" ht="15.15" spans="1:3">
@@ -17903,10 +17959,10 @@
         <v>1066</v>
       </c>
       <c r="B35" t="s">
-        <v>2334</v>
+        <v>2342</v>
       </c>
       <c r="C35" t="s">
-        <v>2335</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="36" ht="15.15" spans="1:3">
@@ -17914,10 +17970,10 @@
         <v>1069</v>
       </c>
       <c r="B36" t="s">
-        <v>2336</v>
+        <v>2344</v>
       </c>
       <c r="C36" t="s">
-        <v>2337</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="37" ht="15.15" spans="1:3">
@@ -17925,10 +17981,10 @@
         <v>1072</v>
       </c>
       <c r="B37" t="s">
-        <v>2338</v>
+        <v>2346</v>
       </c>
       <c r="C37" t="s">
-        <v>2339</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="38" ht="15.15" spans="1:3">
@@ -17936,10 +17992,10 @@
         <v>1075</v>
       </c>
       <c r="B38" t="s">
-        <v>2340</v>
+        <v>2348</v>
       </c>
       <c r="C38" t="s">
-        <v>2341</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="39" ht="15.15" spans="1:3">
@@ -17947,10 +18003,10 @@
         <v>1078</v>
       </c>
       <c r="B39" t="s">
-        <v>2342</v>
+        <v>2350</v>
       </c>
       <c r="C39" t="s">
-        <v>2343</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="40" ht="15.15" spans="1:3">
@@ -17958,10 +18014,10 @@
         <v>1081</v>
       </c>
       <c r="B40" t="s">
-        <v>2344</v>
+        <v>2352</v>
       </c>
       <c r="C40" t="s">
-        <v>2345</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="41" ht="15.15" spans="1:3">
@@ -17969,10 +18025,10 @@
         <v>1084</v>
       </c>
       <c r="B41" t="s">
-        <v>2346</v>
+        <v>2354</v>
       </c>
       <c r="C41" t="s">
-        <v>2347</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="42" ht="15.15" spans="1:3">
@@ -17980,10 +18036,10 @@
         <v>1087</v>
       </c>
       <c r="B42" t="s">
-        <v>2348</v>
+        <v>2356</v>
       </c>
       <c r="C42" t="s">
-        <v>2349</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="43" ht="15.15" spans="1:3">
@@ -17991,10 +18047,10 @@
         <v>1090</v>
       </c>
       <c r="B43" t="s">
-        <v>2350</v>
+        <v>2358</v>
       </c>
       <c r="C43" t="s">
-        <v>2351</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="44" ht="15.15" spans="1:3">
@@ -18002,10 +18058,10 @@
         <v>1093</v>
       </c>
       <c r="B44" t="s">
-        <v>2352</v>
+        <v>2360</v>
       </c>
       <c r="C44" t="s">
-        <v>2353</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="45" ht="15.15" spans="1:3">
@@ -18013,10 +18069,10 @@
         <v>1095</v>
       </c>
       <c r="B45" t="s">
-        <v>2354</v>
+        <v>2362</v>
       </c>
       <c r="C45" t="s">
-        <v>2355</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="46" ht="15.15" spans="1:3">
@@ -18024,10 +18080,10 @@
         <v>1098</v>
       </c>
       <c r="B46" t="s">
-        <v>2356</v>
+        <v>2364</v>
       </c>
       <c r="C46" t="s">
-        <v>2357</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="47" ht="15.15" spans="1:3">
@@ -18035,10 +18091,10 @@
         <v>1101</v>
       </c>
       <c r="B47" t="s">
-        <v>2358</v>
+        <v>2366</v>
       </c>
       <c r="C47" t="s">
-        <v>2359</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="48" ht="15.15" spans="1:3">
@@ -18046,90 +18102,90 @@
         <v>1104</v>
       </c>
       <c r="B48" t="s">
-        <v>2360</v>
+        <v>2368</v>
       </c>
       <c r="C48" t="s">
-        <v>2361</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>2362</v>
+        <v>2370</v>
       </c>
       <c r="B50" t="s">
-        <v>2363</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>2364</v>
+        <v>2372</v>
       </c>
       <c r="B51" t="s">
-        <v>2365</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>2366</v>
+        <v>2374</v>
       </c>
       <c r="C54" t="s">
-        <v>2367</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>2368</v>
+        <v>2376</v>
       </c>
       <c r="C55" t="s">
-        <v>2369</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>2370</v>
+        <v>2378</v>
       </c>
       <c r="C56" t="s">
-        <v>2371</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>2372</v>
+        <v>2380</v>
       </c>
       <c r="C57" t="s">
-        <v>2373</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>2374</v>
+        <v>2382</v>
       </c>
       <c r="C58" t="s">
-        <v>2375</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>2376</v>
+        <v>2384</v>
       </c>
       <c r="C59" t="s">
-        <v>2377</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>2378</v>
+        <v>2386</v>
       </c>
       <c r="C60" t="s">
-        <v>2379</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>2380</v>
+        <v>2388</v>
       </c>
       <c r="C61" t="s">
-        <v>2381</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="65" ht="15.15" spans="2:4">
@@ -18148,10 +18204,10 @@
         <v>963</v>
       </c>
       <c r="C66" t="s">
-        <v>2382</v>
+        <v>2390</v>
       </c>
       <c r="D66" t="s">
-        <v>2383</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="67" ht="15.15" spans="2:4">
@@ -18159,10 +18215,10 @@
         <v>966</v>
       </c>
       <c r="C67" t="s">
-        <v>2366</v>
+        <v>2374</v>
       </c>
       <c r="D67" t="s">
-        <v>2367</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="68" ht="15.15" spans="2:4">
@@ -18170,10 +18226,10 @@
         <v>969</v>
       </c>
       <c r="C68" t="s">
-        <v>2368</v>
+        <v>2376</v>
       </c>
       <c r="D68" t="s">
-        <v>2369</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="69" ht="15.15" spans="2:4">
@@ -18181,10 +18237,10 @@
         <v>972</v>
       </c>
       <c r="C69" t="s">
-        <v>2370</v>
+        <v>2378</v>
       </c>
       <c r="D69" t="s">
-        <v>2371</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="70" ht="15.15" spans="2:4">
@@ -18192,10 +18248,10 @@
         <v>975</v>
       </c>
       <c r="C70" t="s">
-        <v>2372</v>
+        <v>2380</v>
       </c>
       <c r="D70" t="s">
-        <v>2373</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="71" ht="15.15" spans="2:4">
@@ -18203,10 +18259,10 @@
         <v>978</v>
       </c>
       <c r="C71" t="s">
-        <v>2374</v>
+        <v>2382</v>
       </c>
       <c r="D71" t="s">
-        <v>2375</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="72" ht="15.15" spans="2:4">
@@ -18214,10 +18270,10 @@
         <v>981</v>
       </c>
       <c r="C72" t="s">
-        <v>2376</v>
+        <v>2384</v>
       </c>
       <c r="D72" t="s">
-        <v>2377</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="73" ht="15.15" spans="2:4">
@@ -18225,10 +18281,10 @@
         <v>984</v>
       </c>
       <c r="C73" t="s">
-        <v>2378</v>
+        <v>2386</v>
       </c>
       <c r="D73" t="s">
-        <v>2379</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="74" ht="15.15" spans="2:4">
@@ -18236,10 +18292,10 @@
         <v>987</v>
       </c>
       <c r="C74" t="s">
-        <v>2380</v>
+        <v>2388</v>
       </c>
       <c r="D74" t="s">
-        <v>2381</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="75" ht="15.15" spans="2:4">
@@ -18247,10 +18303,10 @@
         <v>990</v>
       </c>
       <c r="C75" t="s">
-        <v>2384</v>
+        <v>2392</v>
       </c>
       <c r="D75" t="s">
-        <v>2385</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="76" ht="15.15" spans="2:4">
@@ -18258,10 +18314,10 @@
         <v>993</v>
       </c>
       <c r="C76" t="s">
-        <v>2386</v>
+        <v>2394</v>
       </c>
       <c r="D76" t="s">
-        <v>2387</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="77" ht="15.15" spans="2:4">
@@ -18269,10 +18325,10 @@
         <v>996</v>
       </c>
       <c r="C77" t="s">
-        <v>2388</v>
+        <v>2396</v>
       </c>
       <c r="D77" t="s">
-        <v>2389</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="78" ht="15.15" spans="2:4">
@@ -18280,10 +18336,10 @@
         <v>999</v>
       </c>
       <c r="C78" t="s">
-        <v>2390</v>
+        <v>2398</v>
       </c>
       <c r="D78" t="s">
-        <v>2391</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="79" ht="15.15" spans="2:4">
@@ -18291,10 +18347,10 @@
         <v>1002</v>
       </c>
       <c r="C79" t="s">
-        <v>2392</v>
+        <v>2400</v>
       </c>
       <c r="D79" t="s">
-        <v>2393</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="80" ht="15.15" spans="2:4">
@@ -18302,10 +18358,10 @@
         <v>1005</v>
       </c>
       <c r="C80" t="s">
-        <v>2394</v>
+        <v>2402</v>
       </c>
       <c r="D80" t="s">
-        <v>2395</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="81" ht="15.15" spans="2:4">
@@ -18313,10 +18369,10 @@
         <v>1008</v>
       </c>
       <c r="C81" t="s">
-        <v>2396</v>
+        <v>2404</v>
       </c>
       <c r="D81" t="s">
-        <v>2397</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="82" ht="15.15" spans="2:4">
@@ -18324,10 +18380,10 @@
         <v>1011</v>
       </c>
       <c r="C82" t="s">
-        <v>2398</v>
+        <v>2406</v>
       </c>
       <c r="D82" t="s">
-        <v>2399</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="83" ht="15.15" spans="2:4">
@@ -18335,10 +18391,10 @@
         <v>1014</v>
       </c>
       <c r="C83" t="s">
-        <v>2400</v>
+        <v>2408</v>
       </c>
       <c r="D83" t="s">
-        <v>2401</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="84" ht="15.15" spans="2:4">
@@ -18346,10 +18402,10 @@
         <v>1017</v>
       </c>
       <c r="C84" t="s">
-        <v>2402</v>
+        <v>2410</v>
       </c>
       <c r="D84" t="s">
-        <v>2403</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="85" ht="15.15" spans="2:4">
@@ -18357,10 +18413,10 @@
         <v>1020</v>
       </c>
       <c r="C85" t="s">
-        <v>2404</v>
+        <v>2412</v>
       </c>
       <c r="D85" t="s">
-        <v>2405</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="86" ht="15.15" spans="2:4">
@@ -18368,10 +18424,10 @@
         <v>1023</v>
       </c>
       <c r="C86" t="s">
-        <v>2406</v>
+        <v>2414</v>
       </c>
       <c r="D86" t="s">
-        <v>2407</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="87" ht="15.15" spans="2:4">
@@ -18379,10 +18435,10 @@
         <v>1026</v>
       </c>
       <c r="C87" t="s">
-        <v>2408</v>
+        <v>2416</v>
       </c>
       <c r="D87" t="s">
-        <v>2409</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="88" ht="15.15" spans="2:4">
@@ -18390,10 +18446,10 @@
         <v>1029</v>
       </c>
       <c r="C88" t="s">
-        <v>2410</v>
+        <v>2418</v>
       </c>
       <c r="D88" t="s">
-        <v>2411</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="89" ht="15.15" spans="2:4">
@@ -18401,10 +18457,10 @@
         <v>1032</v>
       </c>
       <c r="C89" t="s">
-        <v>2412</v>
+        <v>2420</v>
       </c>
       <c r="D89" t="s">
-        <v>2413</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="90" ht="15.15" spans="2:4">
@@ -18412,10 +18468,10 @@
         <v>1035</v>
       </c>
       <c r="C90" t="s">
-        <v>2414</v>
+        <v>2422</v>
       </c>
       <c r="D90" t="s">
-        <v>2415</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="91" ht="15.15" spans="2:4">
@@ -18423,10 +18479,10 @@
         <v>1038</v>
       </c>
       <c r="C91" t="s">
-        <v>2416</v>
+        <v>2424</v>
       </c>
       <c r="D91" t="s">
-        <v>2417</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="92" ht="15.15" spans="2:4">
@@ -18434,10 +18490,10 @@
         <v>1041</v>
       </c>
       <c r="C92" t="s">
-        <v>2418</v>
+        <v>2426</v>
       </c>
       <c r="D92" t="s">
-        <v>2419</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="93" ht="15.15" spans="2:4">
@@ -18445,10 +18501,10 @@
         <v>1044</v>
       </c>
       <c r="C93" t="s">
-        <v>2420</v>
+        <v>2428</v>
       </c>
       <c r="D93" t="s">
-        <v>2421</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="94" ht="15.15" spans="2:4">
@@ -18456,10 +18512,10 @@
         <v>1047</v>
       </c>
       <c r="C94" t="s">
-        <v>2422</v>
+        <v>2430</v>
       </c>
       <c r="D94" t="s">
-        <v>2423</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="95" ht="15.15" spans="2:4">
@@ -18467,10 +18523,10 @@
         <v>1050</v>
       </c>
       <c r="C95" t="s">
-        <v>2424</v>
+        <v>2432</v>
       </c>
       <c r="D95" t="s">
-        <v>2425</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="96" ht="15.15" spans="2:4">
@@ -18478,10 +18534,10 @@
         <v>1051</v>
       </c>
       <c r="C96" t="s">
-        <v>2426</v>
+        <v>2434</v>
       </c>
       <c r="D96" t="s">
-        <v>2427</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="97" ht="15.15" spans="2:4">
@@ -18489,10 +18545,10 @@
         <v>1054</v>
       </c>
       <c r="C97" t="s">
-        <v>2428</v>
+        <v>2436</v>
       </c>
       <c r="D97" t="s">
-        <v>2429</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="98" ht="15.15" spans="2:4">
@@ -18500,10 +18556,10 @@
         <v>1057</v>
       </c>
       <c r="C98" t="s">
-        <v>2430</v>
+        <v>2438</v>
       </c>
       <c r="D98" t="s">
-        <v>2431</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="99" ht="15.15" spans="2:4">
@@ -18511,10 +18567,10 @@
         <v>1060</v>
       </c>
       <c r="C99" t="s">
-        <v>2432</v>
+        <v>2440</v>
       </c>
       <c r="D99" t="s">
-        <v>2433</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="100" ht="15.15" spans="2:4">
@@ -18522,10 +18578,10 @@
         <v>1063</v>
       </c>
       <c r="C100" t="s">
-        <v>2434</v>
+        <v>2442</v>
       </c>
       <c r="D100" t="s">
-        <v>2435</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="101" ht="15.15" spans="2:4">
@@ -18533,10 +18589,10 @@
         <v>1066</v>
       </c>
       <c r="C101" t="s">
-        <v>2436</v>
+        <v>2444</v>
       </c>
       <c r="D101" t="s">
-        <v>2437</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="102" ht="15.15" spans="2:4">
@@ -18544,10 +18600,10 @@
         <v>1069</v>
       </c>
       <c r="C102" t="s">
-        <v>2438</v>
+        <v>2446</v>
       </c>
       <c r="D102" t="s">
-        <v>2439</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="103" ht="15.15" spans="2:4">
@@ -18555,10 +18611,10 @@
         <v>1072</v>
       </c>
       <c r="C103" t="s">
-        <v>2440</v>
+        <v>2448</v>
       </c>
       <c r="D103" t="s">
-        <v>2441</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="104" ht="15.15" spans="2:4">
@@ -18566,10 +18622,10 @@
         <v>1075</v>
       </c>
       <c r="C104" t="s">
-        <v>2442</v>
+        <v>2450</v>
       </c>
       <c r="D104" t="s">
-        <v>2443</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="105" ht="15.15" spans="2:4">
@@ -18580,7 +18636,7 @@
         <v>991</v>
       </c>
       <c r="D105" t="s">
-        <v>2444</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="106" ht="15.15" spans="2:4">
@@ -18588,10 +18644,10 @@
         <v>1081</v>
       </c>
       <c r="C106" t="s">
-        <v>2445</v>
+        <v>2453</v>
       </c>
       <c r="D106" t="s">
-        <v>2446</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="107" ht="15.15" spans="2:4">
@@ -18599,10 +18655,10 @@
         <v>1084</v>
       </c>
       <c r="C107" t="s">
-        <v>2447</v>
+        <v>2455</v>
       </c>
       <c r="D107" t="s">
-        <v>2448</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="108" ht="15.15" spans="2:4">
@@ -18610,10 +18666,10 @@
         <v>1087</v>
       </c>
       <c r="C108" t="s">
-        <v>2449</v>
+        <v>2457</v>
       </c>
       <c r="D108" t="s">
-        <v>2450</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="109" ht="15.15" spans="2:4">
@@ -18621,10 +18677,10 @@
         <v>1090</v>
       </c>
       <c r="C109" t="s">
-        <v>2451</v>
+        <v>2459</v>
       </c>
       <c r="D109" t="s">
-        <v>2452</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="110" ht="15.15" spans="2:4">
@@ -18632,10 +18688,10 @@
         <v>1093</v>
       </c>
       <c r="C110" t="s">
-        <v>2453</v>
+        <v>2461</v>
       </c>
       <c r="D110" t="s">
-        <v>2454</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="111" ht="15.15" spans="2:4">
@@ -18643,10 +18699,10 @@
         <v>1095</v>
       </c>
       <c r="C111" t="s">
-        <v>2455</v>
+        <v>2463</v>
       </c>
       <c r="D111" t="s">
-        <v>2456</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="112" ht="15.15" spans="2:4">
@@ -18654,10 +18710,10 @@
         <v>1098</v>
       </c>
       <c r="C112" t="s">
-        <v>2457</v>
+        <v>2465</v>
       </c>
       <c r="D112" t="s">
-        <v>2458</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="113" ht="15.15" spans="2:4">
@@ -18665,10 +18721,10 @@
         <v>1101</v>
       </c>
       <c r="C113" t="s">
-        <v>2459</v>
+        <v>2467</v>
       </c>
       <c r="D113" t="s">
-        <v>2460</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="114" ht="15.15" spans="2:4">
@@ -18676,74 +18732,74 @@
         <v>1104</v>
       </c>
       <c r="C114" t="s">
-        <v>2461</v>
+        <v>2469</v>
       </c>
       <c r="D114" t="s">
-        <v>2462</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="117" spans="3:4">
       <c r="C117" t="s">
-        <v>2408</v>
+        <v>2416</v>
       </c>
       <c r="D117" t="s">
-        <v>2409</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="118" spans="3:4">
       <c r="C118" t="s">
-        <v>2410</v>
+        <v>2418</v>
       </c>
       <c r="D118" t="s">
-        <v>2411</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="119" spans="3:4">
       <c r="C119" t="s">
-        <v>2412</v>
+        <v>2420</v>
       </c>
       <c r="D119" t="s">
-        <v>2413</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="120" spans="3:4">
       <c r="C120" t="s">
-        <v>2414</v>
+        <v>2422</v>
       </c>
       <c r="D120" t="s">
-        <v>2415</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="121" spans="3:4">
       <c r="C121" t="s">
-        <v>2463</v>
+        <v>2471</v>
       </c>
       <c r="D121" t="s">
-        <v>2464</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="122" spans="3:4">
       <c r="C122" t="s">
-        <v>2465</v>
+        <v>2473</v>
       </c>
       <c r="D122" t="s">
-        <v>2466</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="123" spans="3:4">
       <c r="C123" t="s">
-        <v>2416</v>
+        <v>2424</v>
       </c>
       <c r="D123" t="s">
-        <v>2417</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="124" spans="3:4">
       <c r="C124" t="s">
-        <v>2418</v>
+        <v>2426</v>
       </c>
       <c r="D124" t="s">
-        <v>2419</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="126" spans="3:4">
@@ -18751,31 +18807,31 @@
         <v>991</v>
       </c>
       <c r="D126" t="s">
-        <v>2467</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="127" spans="3:4">
       <c r="C127" t="s">
-        <v>2468</v>
+        <v>2476</v>
       </c>
       <c r="D127" t="s">
-        <v>2446</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="136" spans="3:4">
       <c r="C136" s="2" t="s">
-        <v>2469</v>
+        <v>2477</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>2470</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="137" spans="3:4">
       <c r="C137" s="2" t="s">
-        <v>2471</v>
+        <v>2479</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>2472</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="139" ht="15.15" spans="3:5">
@@ -18794,10 +18850,10 @@
         <v>1109</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>2473</v>
+        <v>2481</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>2474</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="141" ht="15.15" spans="3:5">
@@ -18805,10 +18861,10 @@
         <v>1112</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>2475</v>
+        <v>2483</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>2476</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="142" ht="15.15" spans="3:5">
@@ -18816,10 +18872,10 @@
         <v>1115</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>2477</v>
+        <v>2485</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>2478</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="143" ht="15.15" spans="3:5">
@@ -18827,10 +18883,10 @@
         <v>1118</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>2479</v>
+        <v>2487</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>2480</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="144" ht="15.15" spans="3:5">
@@ -18838,10 +18894,10 @@
         <v>1121</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>2481</v>
+        <v>2489</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2482</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="145" spans="2:5">
@@ -18852,24 +18908,24 @@
         <v>1056</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>2483</v>
+        <v>2491</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>2484</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="146" spans="2:5">
       <c r="B146" s="2" t="s">
-        <v>2485</v>
+        <v>2493</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>2486</v>
+        <v>2494</v>
       </c>
       <c r="D146" t="s">
-        <v>2487</v>
+        <v>2495</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>2488</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="147" spans="2:5">
@@ -18880,24 +18936,24 @@
         <v>1062</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>2489</v>
+        <v>2497</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>2490</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="2" t="s">
-        <v>2491</v>
+        <v>2499</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>2492</v>
+        <v>2500</v>
       </c>
       <c r="D148" t="s">
-        <v>2493</v>
+        <v>2501</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>2494</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="149" spans="2:5">
@@ -18908,52 +18964,52 @@
         <v>1068</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>2495</v>
+        <v>2503</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>2496</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="150" spans="2:5">
       <c r="B150" s="2" t="s">
-        <v>2497</v>
+        <v>2505</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>2498</v>
+        <v>2506</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>2499</v>
+        <v>2507</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>2500</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="151" spans="2:5">
       <c r="B151" s="2" t="s">
-        <v>2501</v>
+        <v>2509</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>2502</v>
+        <v>2510</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>2503</v>
+        <v>2511</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>2504</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="2" t="s">
-        <v>2505</v>
+        <v>2513</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>2506</v>
+        <v>2514</v>
       </c>
       <c r="D152" t="s">
-        <v>2507</v>
+        <v>2515</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>2508</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="153" ht="15.15" spans="3:5">
@@ -18961,10 +19017,10 @@
         <v>1148</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>2509</v>
+        <v>2517</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>2510</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="154" ht="15.15" spans="2:5">
@@ -18975,24 +19031,24 @@
         <v>1151</v>
       </c>
       <c r="D154" t="s">
-        <v>2511</v>
+        <v>2519</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>2512</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="155" ht="15.15" spans="2:5">
       <c r="B155" s="2" t="s">
-        <v>2485</v>
+        <v>2493</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>1154</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>2513</v>
+        <v>2521</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>2514</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="156" ht="15.15" spans="2:5">
@@ -19003,15 +19059,15 @@
         <v>1157</v>
       </c>
       <c r="D156" t="s">
-        <v>2515</v>
+        <v>2523</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>2516</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="157" ht="15.15" spans="2:5">
       <c r="B157" s="2" t="s">
-        <v>2491</v>
+        <v>2499</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>1160</v>
@@ -19031,15 +19087,15 @@
         <v>1163</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>2517</v>
+        <v>2525</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>2518</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="2" t="s">
-        <v>2497</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="160" spans="2:2">
@@ -19049,21 +19105,21 @@
     </row>
     <row r="161" spans="2:4">
       <c r="B161" s="2" t="s">
-        <v>2505</v>
+        <v>2513</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>2384</v>
+        <v>2392</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>2385</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="162" spans="3:4">
       <c r="C162" s="2" t="s">
-        <v>2519</v>
+        <v>2527</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>2520</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="164" spans="2:3">
@@ -19076,10 +19132,10 @@
     </row>
     <row r="165" spans="3:4">
       <c r="C165" s="2" t="s">
-        <v>2521</v>
+        <v>2529</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>2522</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="167" spans="2:3">
@@ -19092,18 +19148,18 @@
     </row>
     <row r="168" spans="2:3">
       <c r="B168" s="2" t="s">
-        <v>2523</v>
+        <v>2531</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>2524</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" s="2" t="s">
-        <v>2525</v>
+        <v>2533</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>2526</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="172" spans="2:3">
@@ -19135,10 +19191,10 @@
         <v>1178</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>2527</v>
+        <v>2535</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>2528</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="180" ht="15.15" spans="2:4">
@@ -19146,10 +19202,10 @@
         <v>1181</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>2529</v>
+        <v>2537</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>2530</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="185" ht="15.15" spans="2:4">
@@ -19168,10 +19224,10 @@
         <v>1458</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>2531</v>
+        <v>2539</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>2532</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="187" ht="15.15" spans="2:4">
@@ -19179,7 +19235,7 @@
         <v>1461</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>2533</v>
+        <v>2541</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>1463</v>
@@ -19190,7 +19246,7 @@
         <v>1464</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>2534</v>
+        <v>2542</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>1466</v>
@@ -19212,10 +19268,10 @@
         <v>1470</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>2535</v>
+        <v>2543</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>2536</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="191" ht="15.15" spans="2:4">
@@ -19234,7 +19290,7 @@
         <v>1476</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>2537</v>
+        <v>2545</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>1478</v>
@@ -19300,10 +19356,10 @@
         <v>1494</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>2538</v>
+        <v>2546</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>2539</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="199" ht="15.15" spans="2:4">
@@ -19311,10 +19367,10 @@
         <v>1497</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>2540</v>
+        <v>2548</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>2541</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="200" ht="15.15" spans="2:4">
@@ -19322,10 +19378,10 @@
         <v>1500</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>2542</v>
+        <v>2550</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>2543</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="201" ht="15.15" spans="2:4">
@@ -19344,10 +19400,10 @@
         <v>1506</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>2544</v>
+        <v>2552</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>2545</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="203" ht="15.15" spans="2:4">
@@ -19355,10 +19411,10 @@
         <v>1509</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>2546</v>
+        <v>2554</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>2547</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="204" ht="15.15" spans="2:4">
@@ -19366,10 +19422,10 @@
         <v>1512</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>2548</v>
+        <v>2556</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>2549</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="205" ht="15.15" spans="2:4">
@@ -19399,10 +19455,10 @@
         <v>1521</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>2550</v>
+        <v>2558</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>2551</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="208" ht="15.15" spans="2:4">
@@ -19410,10 +19466,10 @@
         <v>1522</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>2552</v>
+        <v>2560</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>2553</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="209" ht="15.15" spans="2:4">
@@ -19435,7 +19491,7 @@
         <v>1533</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>2554</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="211" ht="15.15" spans="2:4">
@@ -19443,10 +19499,10 @@
         <v>1531</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>2555</v>
+        <v>2563</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>2556</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="212" ht="15.15" spans="2:4">
@@ -19454,10 +19510,10 @@
         <v>1532</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>2557</v>
+        <v>2565</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>2558</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="213" ht="15.15" spans="2:4">
@@ -19487,10 +19543,10 @@
         <v>1541</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>2559</v>
+        <v>2567</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>2560</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="216" ht="15.15" spans="2:4">
@@ -19586,10 +19642,10 @@
         <v>1568</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>2561</v>
+        <v>2569</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>2562</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="225" ht="15.15" spans="2:4">
@@ -19608,7 +19664,7 @@
         <v>1574</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>2563</v>
+        <v>2571</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>1576</v>
@@ -19619,7 +19675,7 @@
         <v>1577</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>2564</v>
+        <v>2572</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>1579</v>
@@ -19674,10 +19730,10 @@
         <v>1591</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>2565</v>
+        <v>2573</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>2566</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="233" ht="15.15" spans="2:4">
@@ -19696,10 +19752,10 @@
         <v>1597</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>2567</v>
+        <v>2575</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>2568</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="235" ht="15.15" spans="2:4">
@@ -19707,7 +19763,7 @@
         <v>1600</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>2569</v>
+        <v>2577</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>1602</v>
@@ -19743,7 +19799,7 @@
   <sheetData>
     <row r="18" spans="5:6">
       <c r="E18" s="1" t="s">
-        <v>2570</v>
+        <v>2578</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1144</v>
@@ -19751,10 +19807,10 @@
     </row>
     <row r="19" spans="5:6">
       <c r="E19" s="2" t="s">
-        <v>2571</v>
+        <v>2579</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>2572</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="24" spans="5:6">
@@ -19767,10 +19823,10 @@
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="2" t="s">
-        <v>2573</v>
+        <v>2581</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>2574</v>
+        <v>2582</v>
       </c>
     </row>
   </sheetData>

--- a/Refactor_Mobile/Assets/Excels/LanguageExcel.xlsx
+++ b/Refactor_Mobile/Assets/Excels/LanguageExcel.xlsx
@@ -891,10 +891,10 @@
     <t>LEADERBOARDTIPS2</t>
   </si>
   <si>
-    <t>无法获取每周挑战，请尝试检查网络或以及登录Steam</t>
-  </si>
-  <si>
-    <t>Unable to access the weekly Challenge, please check the network and log on to Steam</t>
+    <t>无法获取每周挑战，请尝试检查网络或以及并登录</t>
+  </si>
+  <si>
+    <t>Unable to access the weekly Challenge, please check the network and log on</t>
   </si>
   <si>
     <t>RECONNECT</t>
@@ -9400,8 +9400,8 @@
   <sheetPr/>
   <dimension ref="A1:E855"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="42" customHeight="1" outlineLevelCol="4"/>
